--- a/graphs/periodicRunnings.xlsx
+++ b/graphs/periodicRunnings.xlsx
@@ -13,13 +13,14 @@
     <sheet name="periodic_20" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="periodic_25" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="periodic_30" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="2min_periodic" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>Periodic Data – p =.998 q = .70</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>TDDD</t>
+  </si>
+  <si>
+    <t> - less than or equal</t>
   </si>
   <si>
     <t>Divisor</t>
@@ -172,10 +176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -187,7 +191,10 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.515306122449"/>
     <col collapsed="false" hidden="false" max="11" min="8" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,49 +225,64 @@
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,6 +295,15 @@
       <c r="C6" s="0" t="n">
         <v>0.596505376</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9.66070620917381</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.960339623</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
@@ -289,7 +320,16 @@
         <v>41.9060319835438</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.52835396</v>
+        <v>0.52839988</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>20.0636459878234</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.937852593</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,6 +342,15 @@
       <c r="C7" s="0" t="n">
         <v>0.499406788</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>9.89176477170179</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.958052705</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>15</v>
       </c>
@@ -318,7 +367,16 @@
         <v>70.7097587703302</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.643006991</v>
+        <v>0.643544152</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>20.31844535271</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.92697688</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,6 +389,15 @@
       <c r="C8" s="0" t="n">
         <v>0.383888519</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10.0857097492707</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.952981101</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>20</v>
       </c>
@@ -347,7 +414,16 @@
         <v>106.95720943107</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.55120415</v>
+        <v>0.55138063</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>30.2557460555515</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.906904686</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,6 +436,15 @@
       <c r="C9" s="0" t="n">
         <v>0.373998651</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10.1456704823791</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.947917069</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
@@ -376,7 +461,16 @@
         <v>134.591960453142</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.526120817</v>
+        <v>0.526259217</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30.5796333012089</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.896915372</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,6 +483,15 @@
       <c r="C10" s="0" t="n">
         <v>0.230183712</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10.2232355010033</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.942655479</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>30</v>
       </c>
@@ -405,7 +508,16 @@
         <v>185.854867224576</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.410878865</v>
+        <v>0.411129187</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>40.5205753327969</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.875498743</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,6 +530,15 @@
       <c r="C11" s="0" t="n">
         <v>0.239752405</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10.2783078983912</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.937631579</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>35</v>
       </c>
@@ -434,7 +555,16 @@
         <v>212.722331815931</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.353198991</v>
+        <v>0.353364193</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>40.9514083786676</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.865612586999999</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,6 +577,15 @@
       <c r="C12" s="0" t="n">
         <v>0.16302799</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10.3335541910115</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.932699972</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>40</v>
       </c>
@@ -463,7 +602,16 @@
         <v>259.965197160083</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.294398505</v>
+        <v>0.294480639</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>50.8986219345995</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.845247471</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,6 +624,15 @@
       <c r="C13" s="0" t="n">
         <v>0.220379218</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10.3891859156973</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.927745033</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>45</v>
       </c>
@@ -492,7 +649,16 @@
         <v>277.884087270018</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.349592684</v>
+        <v>0.349772858</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>51.437475979685</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.83575126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,6 +671,15 @@
       <c r="C14" s="0" t="n">
         <v>0.201116675</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10.4446844285249</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.922881169</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>50</v>
       </c>
@@ -521,7 +696,16 @@
         <v>312.487590432309</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.284584933</v>
+        <v>0.284624929</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>61.3891426335787</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.816433798</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,6 +718,15 @@
       <c r="C15" s="0" t="n">
         <v>0.143765147</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10.5010370154181</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.917992874</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>55</v>
       </c>
@@ -550,7 +743,16 @@
         <v>362.094145024846</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.253384725</v>
+        <v>0.253485868</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>62.0370701496626</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.807737172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,6 +765,15 @@
       <c r="C16" s="0" t="n">
         <v>0.086202095</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10.5571930118203</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.913196698</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>60</v>
       </c>
@@ -579,7 +790,16 @@
         <v>412.797458523771</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.195934262</v>
+        <v>0.196007581</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>71.9935461274706</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.787785896</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,6 +812,15 @@
       <c r="C17" s="0" t="n">
         <v>0.162897056</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10.6143288208237</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.908371836</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>65</v>
       </c>
@@ -608,7 +837,16 @@
         <v>415.649779604449</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.202404456</v>
+        <v>0.202461427</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>72.7494151664563</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.779325499</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,6 +859,15 @@
       <c r="C18" s="0" t="n">
         <v>0.095732615</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>10.6712385832112</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.903639289</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>70</v>
       </c>
@@ -637,7 +884,16 @@
         <v>472.471198115948</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.138687374</v>
+        <v>0.138706966</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>82.7233529597559</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.760174177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,6 +906,15 @@
       <c r="C19" s="0" t="n">
         <v>0.143627571</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>10.729129107026</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.89887782</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>75</v>
       </c>
@@ -666,7 +931,16 @@
         <v>484.581147325514</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.162064452</v>
+        <v>0.162094955</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>83.5849887741945</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.751749235</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,6 +953,15 @@
       <c r="C20" s="0" t="n">
         <v>0.105430123</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10.7868400291222</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.894208331</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>80</v>
       </c>
@@ -695,7 +978,16 @@
         <v>535.053647597877</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.133874966</v>
+        <v>0.133894794</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>93.5638328818734</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.733865783</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,6 +1000,15 @@
       <c r="C21" s="0" t="n">
         <v>0.057455776</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10.8455324125282</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.889512094</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
       </c>
@@ -724,7 +1025,16 @@
         <v>592.550716251019</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.114699862</v>
+        <v>0.114739875</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>94.5322229336232</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.726083205</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,6 +1047,15 @@
       <c r="C22" s="0" t="n">
         <v>0.095816666</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10.9040157646845</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.884903346</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>90</v>
       </c>
@@ -753,7 +1072,16 @@
         <v>607.1961212497</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.125988119</v>
+        <v>0.126015863</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>104.523660092031</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.708268292</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,6 +1094,15 @@
       <c r="C23" s="0" t="n">
         <v>0.076607283</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10.9635041718835</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.880270684</v>
+      </c>
       <c r="G23" s="0" t="n">
         <v>95</v>
       </c>
@@ -782,7 +1119,16 @@
         <v>649.983790760012</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.103210505</v>
+        <v>0.103244522</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>105.596705599738</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.700528282</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,6 +1141,15 @@
       <c r="C24" s="0" t="n">
         <v>0.057436739</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>11.0227730973339</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.875722802</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>100</v>
       </c>
@@ -811,7 +1166,16 @@
         <v>691.25934651348</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.080871501</v>
+        <v>0.080877896</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>115.597738928852</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.683820925</v>
       </c>
     </row>
   </sheetData>
@@ -830,10 +1194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -860,7 +1224,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,49 +1240,64 @@
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,6 +1310,15 @@
       <c r="C6" s="0" t="n">
         <v>0.746225784887107</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.90051022269075</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.963124514437743</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
@@ -947,7 +1335,16 @@
         <v>38.3457886641516</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.75766213916893</v>
+        <v>0.757934779032611</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>15.2088174855835</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.940930551534724</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,6 +1357,15 @@
       <c r="C7" s="0" t="n">
         <v>0.553408675295662</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>14.4266207943043</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.95041772079114</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>15</v>
       </c>
@@ -976,7 +1382,16 @@
         <v>65.6937336535379</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.628344984827507</v>
+        <v>0.628788275605862</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>30.0980708265491</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.917163553418223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,6 +1404,15 @@
       <c r="C8" s="0" t="n">
         <v>0.561130344434828</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>14.7031747956264</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.948722616638692</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>20</v>
       </c>
@@ -1005,7 +1429,16 @@
         <v>86.9824744839395</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.740049542975229</v>
+        <v>0.740376992811504</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>30.3479724344738</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.910178328910835</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,6 +1451,15 @@
       <c r="C9" s="0" t="n">
         <v>0.466049189975405</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>14.8841224306399</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.945605485197257</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
@@ -1034,7 +1476,16 @@
         <v>124.185522879898</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.654054082972959</v>
+        <v>0.654343453828273</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30.5939764363975</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.90297147951426</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,6 +1498,15 @@
       <c r="C10" s="0" t="n">
         <v>0.351661261169369</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>15.2020398623242</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.940755234622383</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>30</v>
       </c>
@@ -1063,7 +1523,16 @@
         <v>164.456164856544</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.49700733949633</v>
+        <v>0.497235254382373</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>45.3339763902777</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.876860914569543</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,6 +1545,15 @@
       <c r="C11" s="0" t="n">
         <v>0.418373434813283</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>15.2652762712598</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.936920108539946</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>35</v>
       </c>
@@ -1092,7 +1570,16 @@
         <v>177.434801032488</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.518390065804967</v>
+        <v>0.518530802734599</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>45.6994399329408</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.869748593125703</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,6 +1592,15 @@
       <c r="C12" s="0" t="n">
         <v>0.360905248547376</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15.3272689597892</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.933166236416882</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>40</v>
       </c>
@@ -1121,7 +1617,16 @@
         <v>217.544544012334</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.453041448479276</v>
+        <v>0.453107206446397</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>46.0643543071696</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.86268233865883</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,6 +1639,15 @@
       <c r="C13" s="0" t="n">
         <v>0.228443642778179</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>15.3921766209611</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.929447590276205</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>45</v>
       </c>
@@ -1150,7 +1664,16 @@
         <v>275.911380600775</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.327435388282306</v>
+        <v>0.327591217204391</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>60.7501411936637</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.836232762883618</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,6 +1686,15 @@
       <c r="C14" s="0" t="n">
         <v>0.218134256932872</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>15.4546250817105</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.925675262162369</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>50</v>
       </c>
@@ -1179,7 +1711,16 @@
         <v>306.802038604175</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.326179094910453</v>
+        <v>0.326254173872913</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>61.2365246827744</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.830022740988629</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,6 +1733,15 @@
       <c r="C15" s="0" t="n">
         <v>0.189808085095958</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>15.5164803790894</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.921983824008088</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>55</v>
       </c>
@@ -1208,7 +1758,16 @@
         <v>347.836378526199</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.29866821966589</v>
+        <v>0.298756251621874</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>61.724451508731</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.823641147179426</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,6 +1780,15 @@
       <c r="C16" s="0" t="n">
         <v>0.199151464424268</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15.5783930045218</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.918337444831277</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>60</v>
       </c>
@@ -1237,7 +1805,16 @@
         <v>373.092663750463</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.250727873636063</v>
+        <v>0.250781131609434</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>76.3618089724318</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.798282135858932</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,6 +1827,15 @@
       <c r="C17" s="0" t="n">
         <v>0.180143723928138</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>15.6418754378428</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.914625633687183</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>65</v>
       </c>
@@ -1266,7 +1852,16 @@
         <v>411.686538013047</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.271863830068085</v>
+        <v>0.271952802023599</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>76.972513484957</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.791915948042026</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,6 +1874,15 @@
       <c r="C18" s="0" t="n">
         <v>0.190265221867389</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>15.7047033211356</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.910995471502264</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>70</v>
       </c>
@@ -1295,7 +1899,16 @@
         <v>438.644833926188</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.240251635874182</v>
+        <v>0.240279988860006</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>77.5804665329116</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.785655895172052</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,6 +1921,15 @@
       <c r="C19" s="0" t="n">
         <v>0.16137742031129</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>15.7676077305593</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.907405749297126</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>75</v>
       </c>
@@ -1324,7 +1946,16 @@
         <v>479.059521283676</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.179234015382992</v>
+        <v>0.179276574361713</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>92.169160425551</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.761348460325769</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,6 +1968,15 @@
       <c r="C20" s="0" t="n">
         <v>0.199428813285593</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>15.8320105788096</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.903754904122548</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>80</v>
       </c>
@@ -1353,7 +1993,16 @@
         <v>495.61563217755</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.225220649389675</v>
+        <v>0.225256294371853</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>92.8950308186078</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.755375395312302</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,6 +2015,15 @@
       <c r="C21" s="0" t="n">
         <v>0.132863522568239</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>15.8958760352213</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.900182930908535</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
       </c>
@@ -1382,7 +2040,16 @@
         <v>558.075755677783</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.172084323957838</v>
+        <v>0.172116886941557</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>93.6268494540124</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.749374667312667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,6 +2062,15 @@
       <c r="C22" s="0" t="n">
         <v>0.0950361844819078</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>15.9598069206931</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.896649350675325</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>90</v>
       </c>
@@ -1411,7 +2087,16 @@
         <v>607.486409002786</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.113199143400428</v>
+        <v>0.113218815390592</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>108.167218726555</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.726244262877869</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,6 +2109,15 @@
       <c r="C23" s="0" t="n">
         <v>0.1517967991016</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>16.0253220613967</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.893059712470144</v>
+      </c>
       <c r="G23" s="0" t="n">
         <v>95</v>
       </c>
@@ -1440,7 +2134,16 @@
         <v>609.645451899601</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.170103240948379</v>
+        <v>0.170128753935623</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>109.013656984279</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.720568875715562</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,6 +2156,15 @@
       <c r="C24" s="0" t="n">
         <v>0.104249997875001</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>16.0902431140074</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.889544749227625</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>100</v>
       </c>
@@ -1469,7 +2181,16 @@
         <v>667.170547492688</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.118200970899515</v>
+        <v>0.118223313888343</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>109.871791621138</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.714865354567323</v>
       </c>
     </row>
   </sheetData>
@@ -1488,10 +2209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1519,7 +2240,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,49 +2256,64 @@
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,6 +2326,15 @@
       <c r="C6" s="0" t="n">
         <v>0.887185476</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.74411088956813</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.963166409</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
@@ -1606,7 +2351,16 @@
         <v>24.2649345663676</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.52456193</v>
+        <v>0.524655839</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>20.0493457045017</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.932920062</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,6 +2373,15 @@
       <c r="C7" s="0" t="n">
         <v>0.720386806</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8.52049055281286</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.955554227</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>15</v>
       </c>
@@ -1635,7 +2398,16 @@
         <v>57.3492046606679</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.770711369</v>
+        <v>0.771255645</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>20.3843819841603</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.926012779</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,6 +2420,15 @@
       <c r="C8" s="0" t="n">
         <v>0.718699895</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>19.1824308440224</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.940479973</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>20</v>
       </c>
@@ -1664,7 +2445,16 @@
         <v>67.2250808727444</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.664686658</v>
+        <v>0.664784256</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>40.0933594514686</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.896314404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,6 +2467,15 @@
       <c r="C9" s="0" t="n">
         <v>0.509441798</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>19.4652039558764</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.939244545</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
@@ -1693,7 +2492,16 @@
         <v>119.641226819978</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.626301628</v>
+        <v>0.626432999</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>40.3861280116909</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.889828758</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,6 +2514,15 @@
       <c r="C10" s="0" t="n">
         <v>0.500521715</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>19.6557319070681</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.93658622</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>30</v>
       </c>
@@ -1722,7 +2539,16 @@
         <v>138.967701383978</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.58358232</v>
+        <v>0.583806564</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>40.6775102458204</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.883370583</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,6 +2561,15 @@
       <c r="C11" s="0" t="n">
         <v>0.396300223</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>19.8343238091498</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.933106407</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>35</v>
       </c>
@@ -1751,7 +2586,16 @@
         <v>186.198103020082</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.527418038</v>
+        <v>0.527680274</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>40.9687855872005</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.877278388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,6 +2608,15 @@
       <c r="C12" s="0" t="n">
         <v>0.527813206</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20.2697020401725</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.928928625</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>40</v>
       </c>
@@ -1780,7 +2633,16 @@
         <v>176.059433314366</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.522465034</v>
+        <v>0.522512318</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>60.4512241112429</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.844892896</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,6 +2655,15 @@
       <c r="C13" s="0" t="n">
         <v>0.357854458</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20.3427813268911</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.925621821</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>45</v>
       </c>
@@ -1809,7 +2680,16 @@
         <v>247.014577492811</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.468288663</v>
+        <v>0.468500503</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>60.8767903676185</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.839160811</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,6 +2702,15 @@
       <c r="C14" s="0" t="n">
         <v>0.291634203</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>20.4154796887195</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.922335245</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>50</v>
       </c>
@@ -1838,7 +2727,16 @@
         <v>288.505486183204</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.373318136</v>
+        <v>0.37336813</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>61.307225022449</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.833632691</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,6 +2749,15 @@
       <c r="C15" s="0" t="n">
         <v>0.282340076</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20.4891539057467</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.919043034</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>55</v>
       </c>
@@ -1867,7 +2774,16 @@
         <v>320.712584579449</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.347230937</v>
+        <v>0.347292225</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>61.7451756766194</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.827694758</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,6 +2796,15 @@
       <c r="C16" s="0" t="n">
         <v>0.319772992</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20.5681616442043</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.915753369</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>60</v>
       </c>
@@ -1896,7 +2821,16 @@
         <v>334.845693737042</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.366684874</v>
+        <v>0.366748912</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>81.0977047919432</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.796228098</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,6 +2843,15 @@
       <c r="C17" s="0" t="n">
         <v>0.216242099</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20.6406379432182</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.912517778</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>65</v>
       </c>
@@ -1925,7 +2868,16 @@
         <v>401.575495536952</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.27916593</v>
+        <v>0.279242451</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>81.6681334127496</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.79064017</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,6 +2890,15 @@
       <c r="C18" s="0" t="n">
         <v>0.245021123</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20.7136172195464</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.909301501</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>70</v>
       </c>
@@ -1954,7 +2915,16 @@
         <v>418.731706960104</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.267619217</v>
+        <v>0.267654479</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>82.2405459107916</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.785040548</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,6 +2937,15 @@
       <c r="C19" s="0" t="n">
         <v>0.141352044</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20.7875653310742</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.906078654</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>75</v>
       </c>
@@ -1983,7 +2962,16 @@
         <v>492.510725705979</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.201222606</v>
+        <v>0.201296819</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>82.8206362146497</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.779771367</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,6 +2984,15 @@
       <c r="C20" s="0" t="n">
         <v>0.272749942</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20.8619609245767</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.902867365</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>80</v>
       </c>
@@ -2012,7 +3009,16 @@
         <v>463.484175364585</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.263370007</v>
+        <v>0.263393641</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>102.058435170805</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.749865272</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,6 +3031,15 @@
       <c r="C21" s="0" t="n">
         <v>0.197515211</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20.9358155883492</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.899706892</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
       </c>
@@ -2041,7 +3056,16 @@
         <v>527.649949924563</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.19789041</v>
+        <v>0.197914534</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>102.769687910063</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.74465089</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,6 +3078,15 @@
       <c r="C22" s="0" t="n">
         <v>0.159938023</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21.0103303965387</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.896557776</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>90</v>
       </c>
@@ -2070,7 +3103,16 @@
         <v>580.252149684444</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.189153564</v>
+        <v>0.189186191</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>103.4850183759</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.739433846</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,6 +3125,15 @@
       <c r="C23" s="0" t="n">
         <v>0.103254998</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>21.0858772313385</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.893402069</v>
+      </c>
       <c r="G23" s="0" t="n">
         <v>95</v>
       </c>
@@ -2099,7 +3150,16 @@
         <v>641.900307060035</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.142583691</v>
+        <v>0.142628159</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>104.209627913576</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.734512338</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,6 +3172,15 @@
       <c r="C24" s="0" t="n">
         <v>0.169123784</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>21.1617159282822</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.890259968</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>100</v>
       </c>
@@ -2128,7 +3197,16 @@
         <v>634.22298014026</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.168767641</v>
+        <v>0.168777241</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>123.326984357414</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.706258194</v>
       </c>
     </row>
   </sheetData>
@@ -2147,10 +3225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2178,7 +3256,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,49 +3272,64 @@
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,6 +3342,15 @@
       <c r="C6" s="0" t="n">
         <v>0.881749221999999</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.83693491884412</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.963168359</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
@@ -2265,7 +3367,16 @@
         <v>28.7795290522173</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.657289836</v>
+        <v>0.657725133</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>22.1275186628901</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.928772016</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,6 +3389,15 @@
       <c r="C7" s="0" t="n">
         <v>0.76317166</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8.8198685398067</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.955501839</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>15</v>
       </c>
@@ -2294,7 +3414,16 @@
         <v>55.9601637651585</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.857535581</v>
+        <v>0.857957051</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>25.2569926504202</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.918115423</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,6 +3436,15 @@
       <c r="C8" s="0" t="n">
         <v>0.629492472</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11.4384113255908</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.948460628</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>20</v>
       </c>
@@ -2323,7 +3461,16 @@
         <v>81.4166739981751</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.75770258</v>
+        <v>0.758202715</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>25.5907286604966</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.911866487</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,6 +3483,15 @@
       <c r="C9" s="0" t="n">
         <v>0.648230244</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>23.9767018384488</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.931024182</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
@@ -2352,7 +3508,16 @@
         <v>93.6288738229044</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.601605931</v>
+        <v>0.601702131</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>50.0789339276445</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.875644696</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,6 +3530,15 @@
       <c r="C10" s="0" t="n">
         <v>0.468040274</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>24.2549572495933</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.929805953</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>30</v>
       </c>
@@ -2381,7 +3555,16 @@
         <v>146.22403630185</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.651272363</v>
+        <v>0.651484528</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>50.4084712443594</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.869927763</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,6 +3577,15 @@
       <c r="C11" s="0" t="n">
         <v>0.421414993</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>24.4484310529918</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.927425946</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>35</v>
       </c>
@@ -2410,7 +3602,16 @@
         <v>177.417837166322</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.530242918</v>
+        <v>0.530428195</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>50.7391356861892</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.864199963</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,6 +3624,15 @@
       <c r="C12" s="0" t="n">
         <v>0.419816403</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>24.6267522562936</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.924414512</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>40</v>
       </c>
@@ -2439,7 +3649,16 @@
         <v>205.558727567822</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.565637224</v>
+        <v>0.565818578</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>51.0712308175383</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.858714673</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,6 +3671,15 @@
       <c r="C13" s="0" t="n">
         <v>0.364230615</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>24.8108695897627</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.921191666</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>45</v>
       </c>
@@ -2468,7 +3696,16 @@
         <v>241.411717667484</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.477755904</v>
+        <v>0.477946975</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>51.4056989937884</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.853301388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,6 +3718,15 @@
       <c r="C14" s="0" t="n">
         <v>0.373190985</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>25.3218920798143</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.917529884</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>50</v>
       </c>
@@ -2497,7 +3743,16 @@
         <v>264.811781230862</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.444885763</v>
+        <v>0.444939363</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>75.5811494499589</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.815469536</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,6 +3765,15 @@
       <c r="C15" s="0" t="n">
         <v>0.345140886</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>25.4055145552389</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.914521197</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>55</v>
       </c>
@@ -2526,7 +3790,16 @@
         <v>299.88639522945</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.43074972</v>
+        <v>0.43088741</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>76.066145366856</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.810227805</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,6 +3812,15 @@
       <c r="C16" s="0" t="n">
         <v>0.307150129</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>25.4877243579994</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.911561448</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>60</v>
       </c>
@@ -2555,7 +3837,16 @@
         <v>338.624512658616</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.371870708</v>
+        <v>0.37197708</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>76.5541309997869</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.805051107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,6 +3859,15 @@
       <c r="C17" s="0" t="n">
         <v>0.279446914</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>25.5702837811927</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.908613208</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>65</v>
       </c>
@@ -2584,7 +3884,16 @@
         <v>376.973614700236</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.352715495</v>
+        <v>0.352793557</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>77.0456158351967</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.799953437</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,6 +3906,15 @@
       <c r="C18" s="0" t="n">
         <v>0.242499776</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>25.6535724948509</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.905664819</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>70</v>
       </c>
@@ -2613,7 +3931,16 @@
         <v>420.125380873438</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.315760225</v>
+        <v>0.315837277</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>77.5446255894871</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.794775208</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,6 +3953,15 @@
       <c r="C19" s="0" t="n">
         <v>0.223948423</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>25.743395324531</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.902735644</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>75</v>
       </c>
@@ -2642,7 +3978,16 @@
         <v>456.384891142081</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.249714784</v>
+        <v>0.249761936</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>101.505722553267</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.758365213</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,6 +4000,15 @@
       <c r="C20" s="0" t="n">
         <v>0.242178579</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>25.826619865483</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.899806703</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>80</v>
       </c>
@@ -2671,7 +4025,16 @@
         <v>478.10690161467</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.271670105</v>
+        <v>0.271722607</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>102.149591611871</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.753577777</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,6 +4047,15 @@
       <c r="C21" s="0" t="n">
         <v>0.205541752</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>25.9095273500027</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.896919879</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
       </c>
@@ -2700,7 +4072,16 @@
         <v>524.017172285118</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.218257857</v>
+        <v>0.218291291</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>102.800419708429</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.74873064</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,6 +4094,15 @@
       <c r="C22" s="0" t="n">
         <v>0.214342369</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>25.9927186307996</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.894047121</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>90</v>
       </c>
@@ -2729,7 +4119,16 @@
         <v>549.169540195919</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.224730138</v>
+        <v>0.224772026</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>103.455078799024</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.74412483</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,6 +4141,15 @@
       <c r="C23" s="0" t="n">
         <v>0.195602008</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>26.0769818105793</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.891176324</v>
+      </c>
       <c r="G23" s="0" t="n">
         <v>95</v>
       </c>
@@ -2758,7 +4166,16 @@
         <v>588.57917594868</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.2053296</v>
+        <v>0.20537757</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>104.118595423033</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.739588286</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,6 +4188,15 @@
       <c r="C24" s="0" t="n">
         <v>0.232799876</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>26.1613821931746</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.888328686</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>100</v>
       </c>
@@ -2787,7 +4213,16 @@
         <v>597.397708550286</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.205215199</v>
+        <v>0.205221589</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>127.876287210514</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.70518102</v>
       </c>
     </row>
   </sheetData>
@@ -2806,10 +4241,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2837,7 +4272,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,49 +4288,64 @@
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,6 +4358,15 @@
       <c r="C6" s="0" t="n">
         <v>0.88872176455647</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.68725110591837</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.963246452507095</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
@@ -2924,7 +4383,16 @@
         <v>32.2739726069649</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.816476068047863</v>
+        <v>0.816877653244693</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>23.0170361716833</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.92692878014244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,6 +4405,15 @@
       <c r="C7" s="0" t="n">
         <v>0.788441884116232</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8.43868349770174</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.955270690458619</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>15</v>
       </c>
@@ -2953,7 +4430,16 @@
         <v>43.905459060999</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.525369000261999</v>
+        <v>0.52552459495081</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>30.0497411021688</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.911167706664586</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,6 +4452,15 @@
       <c r="C8" s="0" t="n">
         <v>0.634537170925658</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11.3969271044466</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.947946849106302</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>20</v>
       </c>
@@ -2982,7 +4477,16 @@
         <v>84.4582620874583</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.771261889476221</v>
+        <v>0.771680635638729</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>30.4261629526493</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.906176590646818</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,6 +4499,15 @@
       <c r="C9" s="0" t="n">
         <v>0.688887087225826</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>13.6717171287384</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.940756877486245</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
@@ -3011,7 +4524,16 @@
         <v>91.6340641221087</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.734523670952658</v>
+        <v>0.734889750220499</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30.7593300984127</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.90102125995748</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,6 +4546,15 @@
       <c r="C10" s="0" t="n">
         <v>0.584747032505935</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>28.7702439059837</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.92136043527913</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>30</v>
       </c>
@@ -3040,7 +4571,16 @@
         <v>121.96485264406</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.574617343765313</v>
+        <v>0.574755793488413</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>60.0980561053838</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.8581542996914</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,6 +4593,15 @@
       <c r="C11" s="0" t="n">
         <v>0.546378365243269</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>29.0772337161943</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.920510026979946</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>35</v>
       </c>
@@ -3069,7 +4618,16 @@
         <v>158.275528581418</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.664850504298991</v>
+        <v>0.664971303057394</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>60.428265630163</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.853484762030476</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,6 +4640,15 @@
       <c r="C12" s="0" t="n">
         <v>0.426738542522915</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>29.2857127693403</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.918623923752153</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>40</v>
       </c>
@@ -3098,7 +4665,16 @@
         <v>199.422330071981</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.564306329387341</v>
+        <v>0.564447963104074</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>60.7612841921195</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.848864703270593</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,6 +4687,15 @@
       <c r="C13" s="0" t="n">
         <v>0.453511728976542</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>29.446581757256</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.916149037701925</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>45</v>
       </c>
@@ -3127,7 +4712,16 @@
         <v>215.935216127832</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.475512955974088</v>
+        <v>0.475646859706281</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>61.0955882053112</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.844195771608457</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,6 +4734,15 @@
       <c r="C14" s="0" t="n">
         <v>0.370740163519673</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>29.6276010434635</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.913636833726332</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>50</v>
       </c>
@@ -3156,7 +4759,16 @@
         <v>269.130850623664</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.472924268151463</v>
+        <v>0.47299726500547</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>61.4261543385188</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.839737530524939</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,6 +4781,15 @@
       <c r="C15" s="0" t="n">
         <v>0.342016381967236</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>29.8151757992587</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.910956941086118</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>55</v>
       </c>
@@ -3185,7 +4806,16 @@
         <v>297.53067872624</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.434084456831086</v>
+        <v>0.434177029645941</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>61.7604732738775</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.835307227385545</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,6 +4828,15 @@
       <c r="C16" s="0" t="n">
         <v>0.296200480599039</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>30.4555795609575</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.907974568050863</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>60</v>
       </c>
@@ -3214,7 +4853,16 @@
         <v>341.790685742567</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.331375755248489</v>
+        <v>0.331441818116364</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>90.6843883909438</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.791452668094664</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,6 +4875,15 @@
       <c r="C17" s="0" t="n">
         <v>0.34202255495489</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>30.5402736394847</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.905492603014794</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>65</v>
       </c>
@@ -3243,7 +4900,16 @@
         <v>356.628075371703</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.378713019573961</v>
+        <v>0.378810132379735</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>91.1651568927109</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.787250265499469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,6 +4922,15 @@
       <c r="C18" s="0" t="n">
         <v>0.313352751294497</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>30.6232368585072</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.90303949492101</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>70</v>
       </c>
@@ -3272,7 +4947,16 @@
         <v>388.792054074952</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.364251518496963</v>
+        <v>0.364310588378823</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>91.6504885013586</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.783065651868696</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,6 +4969,15 @@
       <c r="C19" s="0" t="n">
         <v>0.397463878072244</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>30.7055906181872</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.900604388791222</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>75</v>
       </c>
@@ -3301,7 +4994,16 @@
         <v>381.335242898839</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.361130012739974</v>
+        <v>0.361174553650893</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>92.1346483073324</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.778981533036934</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,6 +5016,15 @@
       <c r="C20" s="0" t="n">
         <v>0.258826974346051</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>30.7891405323331</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.898163301673397</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>80</v>
       </c>
@@ -3330,7 +5041,16 @@
         <v>473.983949421048</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.294261245477509</v>
+        <v>0.294284565430869</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>92.6298100357664</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.774869507260986</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,6 +5063,15 @@
       <c r="C21" s="0" t="n">
         <v>0.230885695228609</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>30.8730769658696</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.895731653536693</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
       </c>
@@ -3359,7 +5088,16 @@
         <v>511.516453155433</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.272559321881356</v>
+        <v>0.272614945770108</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>93.1314466330154</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.770716762566475</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,6 +5110,15 @@
       <c r="C22" s="0" t="n">
         <v>0.248960167079666</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>30.9635561473184</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.893400100199799</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>90</v>
       </c>
@@ -3388,7 +5135,16 @@
         <v>529.776422209245</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.234879377241245</v>
+        <v>0.234914784170432</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>121.768428674819</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.729062263875472</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,6 +5157,15 @@
       <c r="C23" s="0" t="n">
         <v>0.304329059341881</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>31.0473195219013</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.890979279041442</v>
+      </c>
       <c r="G23" s="0" t="n">
         <v>95</v>
       </c>
@@ -3417,7 +5182,16 @@
         <v>537.195198197512</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.287019976960046</v>
+        <v>0.287059993880012</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>122.412321548557</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.725240027519945</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,6 +5204,15 @@
       <c r="C24" s="0" t="n">
         <v>0.203326518346963</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>31.1305421758785</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.888589221821556</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>100</v>
       </c>
@@ -3446,7 +5229,48 @@
         <v>614.759575752206</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.203083080833838</v>
+        <v>0.203107918784162</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>123.058991340367</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.721456631086738</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/periodicRunnings.xlsx
+++ b/graphs/periodicRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_10" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
   <si>
     <t>Periodic Data – p =.998 q = .70</t>
   </si>
@@ -158,7 +158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -171,8 +171,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Periodic 10</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Periodicity 10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -190,7 +190,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -873,7 +873,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -912,7 +911,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -925,7 +924,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Avg Block Size</a:t>
                 </a:r>
               </a:p>
@@ -944,7 +943,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -982,7 +981,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1029,7 +1028,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1042,7 +1041,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
@@ -1061,7 +1060,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1099,7 +1098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1141,7 +1140,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1228,8 +1227,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Periodicity</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Periodic 15</a:t>
+              <a:t> 15</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2285,7 +2290,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Periodic 20</a:t>
+              <a:t>Periodicity 20</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2490,501 +2495,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>periodic_10!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Winnowing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>periodic_20!$E$6:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>5.7441108895681303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5204905528128592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.182430844022399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.465203955876401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.655731907068098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.834323809149801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.269702040172501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.3427813268911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.4154796887195</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.489153905746701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.568161644204299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.640637943218199</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.7136172195464</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.787565331074202</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.861960924576699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.9358155883492</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.010330396538698</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.0858772313385</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.161715928282199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>periodic_20!$F$6:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.96316640899999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95555422700000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94047997299999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93924454499999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93658622000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93310640700000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92892862499999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92562182100000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92233524499999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91904303399999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91575336900000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.912517778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.90930150099999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90607865399999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.90286736499999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89970689199999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.89655777599999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89340206899999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89025996799999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6245-411A-8E60-7788715AF061}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>periodic_15!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TDDD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>periodic_20!$M$6:$M$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>24.2649345663676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.349204660667901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.2250808727444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119.641226819978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.96770138397801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>186.19810302008199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>176.059433314366</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>247.01457749281099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>288.50548618320403</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>320.71258457944901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>334.84569373704198</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>401.57549553695202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>418.73170696010402</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>492.51072570597898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>463.48417536458498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>527.64994992456297</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>580.25214968444402</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>641.90030706003495</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>634.22298014026001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>periodic_20!$N$6:$N$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.52465583900000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77125564499999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66478425600000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62643299900000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58380656399999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52768027399999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52251231799999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46850050300000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.37336813000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34729222500000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36674891199999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.279242451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.267654479</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.20129681899999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26339364100000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.197914534</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.189186191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.142628159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16877724099999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6245-411A-8E60-7788715AF061}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>periodic_10!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>periodic_20!$H$6:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>20.0493457045017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.384381984160299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3592.51098605579</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3809.85623270118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3917.35996218322</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3924.89701026274</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10851.285606720499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10855.906955840899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10860.761668195501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10865.663674109601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11109.3433486003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11114.2832862215</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11119.138648587599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11123.667148570399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11128.5879310377</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11133.2819273607</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11138.445815274399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11144.320914349901</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11150.4644929061</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>periodic_20!$I$6:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.93292006199999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92601277900000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6245-411A-8E60-7788715AF061}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2995,6 +2505,565 @@
         </c:dLbls>
         <c:axId val="411149832"/>
         <c:axId val="411150160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Winnowing</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$E$6:$E$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>5.7441108895681303</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.5204905528128592</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19.182430844022399</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>19.465203955876401</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>19.655731907068098</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19.834323809149801</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20.269702040172501</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20.3427813268911</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>20.4154796887195</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20.489153905746701</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20.568161644204299</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>20.640637943218199</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>20.7136172195464</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>20.787565331074202</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>20.861960924576699</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20.9358155883492</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21.010330396538698</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>21.0858772313385</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>21.161715928282199</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$F$6:$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.96316640899999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.95555422700000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.94047997299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.93924454499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.93658622000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.93310640700000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.92892862499999995</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.92562182100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.92233524499999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.91904303399999998</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.91575336900000004</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.912517778</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.90930150099999996</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.90607865399999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.90286736499999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.89970689199999998</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.89655777599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.89340206899999997</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.89025996799999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6245-411A-8E60-7788715AF061}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_15!$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TDDD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$M$6:$M$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>24.2649345663676</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.349204660667901</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>67.2250808727444</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>119.641226819978</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>138.96770138397801</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>186.19810302008199</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>176.059433314366</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>247.01457749281099</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>288.50548618320403</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>320.71258457944901</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>334.84569373704198</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>401.57549553695202</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>418.73170696010402</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>492.51072570597898</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>463.48417536458498</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>527.64994992456297</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>580.25214968444402</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>641.90030706003495</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>634.22298014026001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$N$6:$N$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.52465583900000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.77125564499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.66478425600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.62643299900000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.58380656399999997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.52768027399999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.52251231799999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.46850050300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.37336813000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.34729222500000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.36674891199999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.279242451</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.267654479</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.20129681899999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.26339364100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.197914534</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.189186191</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.142628159</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.16877724099999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6245-411A-8E60-7788715AF061}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2min</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$H$6:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>20.0493457045017</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20.384381984160299</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3592.51098605579</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3809.85623270118</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3917.35996218322</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3924.89701026274</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10851.285606720499</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10855.906955840899</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10860.761668195501</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10865.663674109601</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11109.3433486003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11114.2832862215</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>11119.138648587599</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>11123.667148570399</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11128.5879310377</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>11133.2819273607</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11138.445815274399</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>11144.320914349901</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>11150.4644929061</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_20!$I$6:$I$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.93292006199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.92601277900000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6245-411A-8E60-7788715AF061}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="411149832"/>
@@ -3341,7 +3410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Periodic 25</a:t>
+              <a:t>Periodicity 25</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5418,6 +5487,785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>periodic_30!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_30!$M$6:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>32.273972606964897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.905459060999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.458262087458294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.634064122108697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.96485264406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.275528581418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.42233007198101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.93521612783201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269.130850623664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>297.53067872624001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>341.79068574256701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>356.62807537170301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>388.79205407495198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>381.335242898839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>473.98394942104801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>511.516453155433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>529.77642220924497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>537.19519819751201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>614.75957575220605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_30!$N$6:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.81687765324469297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52552459495081005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77168063563872902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73488975022049896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57475579348841299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66497130305739405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56444796310407397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47564685970628101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47299726500547001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43417702964594102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33144181811636397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37881013237973499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36431058837882302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36117455365089302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29428456543086901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27261494577010797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23491478417043199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28705999388001202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20310791878416201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFA1-4F62-BFE2-FD13554266C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2min - relaxed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_30!$P$6:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>23.017036171683301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.049741102168799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.4261629526493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.7593300984127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.098056105383797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.428265630162997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.761284192119497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.095588205311202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.426154338518799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.760473273877501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.684388390943795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.165156892710897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.650488501358595</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.134648307332398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.629810035766397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.1314466330154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.76842867481901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.412321548557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123.058991340367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_30!$Q$6:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.92692878014243996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91116770666458602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90617659064681799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90102125995747995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8581542996914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85348476203047596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84886470327059305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84419577160845705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83973753052493905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83530722738554497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79145266809466397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78725026549946897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78306565186869603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77898153303693396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77486950726098602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77071676256647503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72906226387547202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72524002751994499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72145663108673797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFA1-4F62-BFE2-FD13554266C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>periodic_30!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_30!$B$6:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.815627535069801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.018999385505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.70431662568802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.93134424316202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>484.51882756509099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>620.62326506143995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>926.50077201354497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>980.83417660183602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1282.0963192009301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1474.66075994994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1738.9496043090901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1734.10166464808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1954.54077067714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1819.2581373334999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2446.4965971902898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2709.1544262041398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2787.1323277699898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2694.8430028000098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3321.4888753998398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_30!$C$6:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.88872176455647001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78844188411623195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63453717092565798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68888708722582603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58474703250593496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54637836524326899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42673854252291499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45351172897654202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37074016351967298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34201638196723599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29620048059903897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34202255495488998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31335275129449702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39746387807224398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25882697434605101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23088569522860899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24896016707966601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30432905934188098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.203326518346963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFA1-4F62-BFE2-FD13554266C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415050448"/>
+        <c:axId val="415051760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415050448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415051760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415051760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415050448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5618,6 +6466,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7683,6 +8571,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8238,15 +9642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
+      <xdr:colOff>224115</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64995</xdr:rowOff>
+      <xdr:colOff>549087</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8373,6 +9777,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>694764</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>105336</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8680,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8727,6 +10161,9 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -9695,8 +11132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9886,7 +11323,7 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:L24" si="0">FLOOR( J7/2,1) + 1</f>
+        <f t="shared" ref="K7:K24" si="0">FLOOR( J7/2,1) + 1</f>
         <v>8</v>
       </c>
       <c r="L7">
@@ -10859,8 +12296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11871,8 +13308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12883,8 +14320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/graphs/periodicRunnings.xlsx
+++ b/graphs/periodicRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_10" sheetId="1" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> 15</a:t>
+              <a:t> 25</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1310,132 +1310,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$B$6:$B$24</c:f>
+              <c:f>p_.98_.25!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>101.274117706045</c:v>
+                  <c:v>13.711281250513499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.58948661210201</c:v>
+                  <c:v>24.031061645568698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.57553076702698</c:v>
+                  <c:v>38.542161427611198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>548.48496059415402</c:v>
+                  <c:v>44.447627901583402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.47383581453698</c:v>
+                  <c:v>71.141654879134094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>836.54272103810695</c:v>
+                  <c:v>87.417265607557198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1056.5545515528399</c:v>
+                  <c:v>99.4692945378209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446.42846667188</c:v>
+                  <c:v>119.869052669814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.0404708466101</c:v>
+                  <c:v>130.38809023730099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1860.95521906207</c:v>
+                  <c:v>149.19960632736999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009.09613287097</c:v>
+                  <c:v>170.59176344855101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.1721995712801</c:v>
+                  <c:v>190.772832633186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2356.58410778605</c:v>
+                  <c:v>214.957137061465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638.4687828637302</c:v>
+                  <c:v>235.15595635611399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2676.19506828968</c:v>
+                  <c:v>244.957245706885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3085.2885975883</c:v>
+                  <c:v>272.606610163298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425.5268648783899</c:v>
+                  <c:v>284.48844447883403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3366.5054777028799</c:v>
+                  <c:v>306.49906106851898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3766.3386196966799</c:v>
+                  <c:v>308.034393561088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$C$6:$C$24</c:f>
+              <c:f>p_.98_.25!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.746225784887107</c:v>
+                  <c:v>0.52446889899999904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55340867529566196</c:v>
+                  <c:v>0.42876481300000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56113034443482801</c:v>
+                  <c:v>0.34411721299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46604918997540501</c:v>
+                  <c:v>0.35386901499999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35166126116936902</c:v>
+                  <c:v>0.246944946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41837343481328299</c:v>
+                  <c:v>0.22326465199999901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36090524854737599</c:v>
+                  <c:v>0.21414746100000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228443642778179</c:v>
+                  <c:v>0.18811176599999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.218134256932872</c:v>
+                  <c:v>0.19057221999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18980808509595801</c:v>
+                  <c:v>0.175897623999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19915146442426801</c:v>
+                  <c:v>0.15296052499999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18014372392813799</c:v>
+                  <c:v>0.14020564099999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19026522186738901</c:v>
+                  <c:v>0.12335884699999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16137742031128999</c:v>
+                  <c:v>0.114390506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.199428813285593</c:v>
+                  <c:v>0.12152988000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.132863522568239</c:v>
+                  <c:v>0.106214145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5036184481907801E-2</c:v>
+                  <c:v>0.108326086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15179679910159999</c:v>
+                  <c:v>9.8034050999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.104249997875001</c:v>
+                  <c:v>0.116537883999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,132 +1475,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$E$6:$E$24</c:f>
+              <c:f>p_.98_.25!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.90051022269075</c:v>
+                  <c:v>5.6780308849012497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4266207943043</c:v>
+                  <c:v>8.4136713502281708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.703174795626399</c:v>
+                  <c:v>11.015621356289801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8841224306399</c:v>
+                  <c:v>17.949183710526299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.202039862324201</c:v>
+                  <c:v>19.629753139883601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2652762712598</c:v>
+                  <c:v>21.041971657385101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.327268959789199</c:v>
+                  <c:v>22.449047698058202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3921766209611</c:v>
+                  <c:v>23.7735243352165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4546250817105</c:v>
+                  <c:v>27.2136324655674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.516480379089399</c:v>
+                  <c:v>28.133178679741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5783930045218</c:v>
+                  <c:v>29.011608554994599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.641875437842801</c:v>
+                  <c:v>29.902371261935802</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.7047033211356</c:v>
+                  <c:v>30.777957339659501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.7676077305593</c:v>
+                  <c:v>32.2686418694691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.8320105788096</c:v>
+                  <c:v>33.118347502837899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.895876035221301</c:v>
+                  <c:v>33.976565556247699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.959806920693101</c:v>
+                  <c:v>34.853207565102203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.0253220613967</c:v>
+                  <c:v>35.742355466401797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.0902431140074</c:v>
+                  <c:v>36.794598718530999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$F$6:$F$24</c:f>
+              <c:f>p_.98_.25!$F$6:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.96312451443774305</c:v>
+                  <c:v>0.65556138200000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95041772079113995</c:v>
+                  <c:v>0.60530245100000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94872261663869195</c:v>
+                  <c:v>0.562360736999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94560548519725696</c:v>
+                  <c:v>0.465564909999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94075523462238297</c:v>
+                  <c:v>0.45921429799999902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93692010853994601</c:v>
+                  <c:v>0.44769031199999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93316623641688201</c:v>
+                  <c:v>0.43370105399999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92944759027620505</c:v>
+                  <c:v>0.41884391299999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92567526216236895</c:v>
+                  <c:v>0.40299230800000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92198382400808798</c:v>
+                  <c:v>0.390275065999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91833744483127699</c:v>
+                  <c:v>0.37823847999999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91462563368718297</c:v>
+                  <c:v>0.36684825399999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91099547150226401</c:v>
+                  <c:v>0.355994545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90740574929712603</c:v>
+                  <c:v>0.34542590699999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.903754904122548</c:v>
+                  <c:v>0.33561652800000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90018293090853496</c:v>
+                  <c:v>0.32628068699999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89664935067532503</c:v>
+                  <c:v>0.31741475299999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89305971247014404</c:v>
+                  <c:v>0.308944362999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88954474922762505</c:v>
+                  <c:v>0.30085956400000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,133 +1640,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$M$6:$M$24</c:f>
+              <c:f>p_.98_.25!$M$6:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>38.345788664151598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.693733653537905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.982474483939498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.185522879898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.45616485654401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.434801032488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217.544544012334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.91138060077498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>306.80203860417498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347.83637852619898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.09266375046298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>411.68653801304703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438.64483392618803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>479.05952128367602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>495.61563217755003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>558.07575567778304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>607.48640900278599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>609.64545189960097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>667.170547492688</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$N$6:$N$24</c:f>
+              <c:f>p_.98_.25!$N$6:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.75793477903261097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62878827560586203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74037699281150404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65434345382827297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49723525438237298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51853080273459895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45310720644639702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32759121720439099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.326254173872913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29875625162187402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25078113160943399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27195280202359901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24027998886000601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17927657436171299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22525629437185299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172116886941557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.113218815390592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17012875393562299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11822331388834301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1805,133 +1691,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>p_.98_.25!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>15.2088174855835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>p_.98_.25!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.94093055153472405</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2304,11 +2076,19 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> 15</a:t>
+              <a:t> 30</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3735442824385849"/>
+          <c:y val="2.1029844163887066E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2372,132 +2152,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$B$6:$B$24</c:f>
+              <c:f>p_.98_.30!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>101.274117706045</c:v>
+                  <c:v>13.2980217640836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.58948661210201</c:v>
+                  <c:v>23.0433024118263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.57553076702698</c:v>
+                  <c:v>39.307418404685102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>548.48496059415402</c:v>
+                  <c:v>42.719782521511199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.47383581453698</c:v>
+                  <c:v>60.303298634322203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>836.54272103810695</c:v>
+                  <c:v>73.636660323894603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1056.5545515528399</c:v>
+                  <c:v>99.383793474793094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446.42846667188</c:v>
+                  <c:v>106.45574777331601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.0404708466101</c:v>
+                  <c:v>132.034806425422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1860.95521906207</c:v>
+                  <c:v>150.69642999346399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009.09613287097</c:v>
+                  <c:v>173.54062393539499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.1721995712801</c:v>
+                  <c:v>175.77350037420899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2356.58410778605</c:v>
+                  <c:v>196.91951096914801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638.4687828637302</c:v>
+                  <c:v>185.292147466226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2676.19506828968</c:v>
+                  <c:v>240.52946884551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3085.2885975883</c:v>
+                  <c:v>264.49660804243501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425.5268648783899</c:v>
+                  <c:v>273.47067769593502</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3366.5054777028799</c:v>
+                  <c:v>266.71487093640297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3766.3386196966799</c:v>
+                  <c:v>320.70483956956599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$C$6:$C$24</c:f>
+              <c:f>p_.98_.30!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.746225784887107</c:v>
+                  <c:v>0.51791221417557098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55340867529566196</c:v>
+                  <c:v>0.43008866082267799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56113034443482801</c:v>
+                  <c:v>0.327672472655054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46604918997540501</c:v>
+                  <c:v>0.34775397049205897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35166126116936902</c:v>
+                  <c:v>0.286906281187437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41837343481328299</c:v>
+                  <c:v>0.26186611126777698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36090524854737599</c:v>
+                  <c:v>0.20815945268109401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228443642778179</c:v>
+                  <c:v>0.21598406803186301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.218134256932872</c:v>
+                  <c:v>0.17905650588698799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18980808509595801</c:v>
+                  <c:v>0.16087714624570701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19915146442426801</c:v>
+                  <c:v>0.141253231493537</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18014372392813799</c:v>
+                  <c:v>0.160596755806488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19026522186738901</c:v>
+                  <c:v>0.14279862140275701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16137742031128999</c:v>
+                  <c:v>0.186965626068747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.199428813285593</c:v>
+                  <c:v>0.12161569476861001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.132863522568239</c:v>
+                  <c:v>0.10763606672786601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5036184481907801E-2</c:v>
+                  <c:v>0.114088913822172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15179679910159999</c:v>
+                  <c:v>0.13975648548702899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.104249997875001</c:v>
+                  <c:v>9.5517599964799998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,132 +2317,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$E$6:$E$24</c:f>
+              <c:f>p_.98_.30!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.90051022269075</c:v>
+                  <c:v>5.5880978887598598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4266207943043</c:v>
+                  <c:v>8.1581368775404997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.703174795626399</c:v>
+                  <c:v>10.8633864073668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8841224306399</c:v>
+                  <c:v>13.3255652580995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.202039862324201</c:v>
+                  <c:v>21.473101002819799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2652762712598</c:v>
+                  <c:v>23.254955930835301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.327268959789199</c:v>
+                  <c:v>24.737001997364001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3921766209611</c:v>
+                  <c:v>26.075377456343599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4546250817105</c:v>
+                  <c:v>27.460133041332401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.516480379089399</c:v>
+                  <c:v>28.796478723898101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5783930045218</c:v>
+                  <c:v>32.937770323746598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.641875437842801</c:v>
+                  <c:v>33.900435029428699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.7047033211356</c:v>
+                  <c:v>34.813573268069497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.7676077305593</c:v>
+                  <c:v>35.698550316028403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.8320105788096</c:v>
+                  <c:v>36.607504882547602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.895876035221301</c:v>
+                  <c:v>37.518794367324503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.959806920693101</c:v>
+                  <c:v>39.225823160899402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.0253220613967</c:v>
+                  <c:v>40.0975968163971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.0902431140074</c:v>
+                  <c:v>40.971547856459601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$F$6:$F$24</c:f>
+              <c:f>p_.98_.30!$F$6:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.96312451443774305</c:v>
+                  <c:v>0.65614976270047398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95041772079113995</c:v>
+                  <c:v>0.60402315095369796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94872261663869195</c:v>
+                  <c:v>0.55926264647470703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94560548519725696</c:v>
+                  <c:v>0.51851850596298699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94075523462238297</c:v>
+                  <c:v>0.41891419017161902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93692010853994601</c:v>
+                  <c:v>0.41491317817364298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93316623641688201</c:v>
+                  <c:v>0.40662436375127198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92944759027620505</c:v>
+                  <c:v>0.396050800898398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92567526216236895</c:v>
+                  <c:v>0.38515635368729201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92198382400808798</c:v>
+                  <c:v>0.37401096097807801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91833744483127699</c:v>
+                  <c:v>0.36216623966751998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91462563368718297</c:v>
+                  <c:v>0.35258354083291799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91099547150226401</c:v>
+                  <c:v>0.34346550006899901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90740574929712603</c:v>
+                  <c:v>0.33474171551656801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.903754904122548</c:v>
+                  <c:v>0.32632523534952901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90018293090853496</c:v>
+                  <c:v>0.318259918480163</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89664935067532503</c:v>
+                  <c:v>0.310416546166907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89305971247014404</c:v>
+                  <c:v>0.30297768704462502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88954474922762505</c:v>
+                  <c:v>0.29588100723798499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,133 +2482,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$M$6:$M$24</c:f>
+              <c:f>p_.98_.30!$M$6:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>38.345788664151598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.693733653537905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.982474483939498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.185522879898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.45616485654401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.434801032488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217.544544012334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.91138060077498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>306.80203860417498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347.83637852619898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.09266375046298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>411.68653801304703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438.64483392618803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>479.05952128367602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>495.61563217755003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>558.07575567778304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>607.48640900278599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>609.64545189960097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>667.170547492688</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$N$6:$N$24</c:f>
+              <c:f>p_.98_.30!$N$6:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.75793477903261097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62878827560586203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74037699281150404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65434345382827297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49723525438237298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51853080273459895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45310720644639702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32759121720439099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.326254173872913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29875625162187402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25078113160943399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27195280202359901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24027998886000601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17927657436171299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22525629437185299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172116886941557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.113218815390592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17012875393562299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11822331388834301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2867,133 +2533,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>p_.98_.30!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>15.2088174855835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>p_.98_.30!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.94093055153472405</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8439,7 +7991,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> 15</a:t>
+              <a:t> 10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8507,132 +8059,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$B$6:$B$24</c:f>
+              <c:f>p_.98_10!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>101.274117706045</c:v>
+                  <c:v>20.301424741847399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.58948661210201</c:v>
+                  <c:v>33.851416112632201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.57553076702698</c:v>
+                  <c:v>52.445446459945899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>548.48496059415402</c:v>
+                  <c:v>65.616627677306894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.47383581453698</c:v>
+                  <c:v>94.0732944092167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>836.54272103810695</c:v>
+                  <c:v>108.412164607254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1056.5545515528399</c:v>
+                  <c:v>135.29058118368499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446.42846667188</c:v>
+                  <c:v>141.960818298096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.0404708466101</c:v>
+                  <c:v>161.43629596343101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1860.95521906207</c:v>
+                  <c:v>189.017459582078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009.09613287097</c:v>
+                  <c:v>220.09187308852799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.1721995712801</c:v>
+                  <c:v>219.28528005808499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2356.58410778605</c:v>
+                  <c:v>254.47164762505699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638.4687828637302</c:v>
+                  <c:v>258.16909013946099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2676.19506828968</c:v>
+                  <c:v>287.18832725498402</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3085.2885975883</c:v>
+                  <c:v>321.07704227369197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425.5268648783899</c:v>
+                  <c:v>326.13396629968599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3366.5054777028799</c:v>
+                  <c:v>353.17077390104203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3766.3386196966799</c:v>
+                  <c:v>378.30755957248198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$C$6:$C$24</c:f>
+              <c:f>p_.98_10!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.746225784887107</c:v>
+                  <c:v>0.40176712199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55340867529566196</c:v>
+                  <c:v>0.33110836799999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56113034443482801</c:v>
+                  <c:v>0.25270917500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46604918997540501</c:v>
+                  <c:v>0.24450696299999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35166126116936902</c:v>
+                  <c:v>0.150597169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41837343481328299</c:v>
+                  <c:v>0.15680648999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36090524854737599</c:v>
+                  <c:v>0.106420216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228443642778179</c:v>
+                  <c:v>0.14290760799999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.218134256932872</c:v>
+                  <c:v>0.12986096599999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18980808509595801</c:v>
+                  <c:v>9.3471810000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19915146442426801</c:v>
+                  <c:v>5.5611626999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18014372392813799</c:v>
+                  <c:v>0.105568419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19026522186738901</c:v>
+                  <c:v>6.1620019999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16137742031128999</c:v>
+                  <c:v>9.2554620999999906E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.199428813285593</c:v>
+                  <c:v>6.8421222000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.132863522568239</c:v>
+                  <c:v>3.7019549999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5036184481907801E-2</c:v>
+                  <c:v>6.2202392000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15179679910159999</c:v>
+                  <c:v>4.9321921999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.104249997875001</c:v>
+                  <c:v>3.6942548999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,132 +8224,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$E$6:$E$24</c:f>
+              <c:f>p_.98_10!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.90051022269075</c:v>
+                  <c:v>7.6055148498246199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4266207943043</c:v>
+                  <c:v>9.1185556880968797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.703174795626399</c:v>
+                  <c:v>10.499134608384299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8841224306399</c:v>
+                  <c:v>11.240732008459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.202039862324201</c:v>
+                  <c:v>12.2131384733338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2652762712598</c:v>
+                  <c:v>12.8504070395414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.327268959789199</c:v>
+                  <c:v>13.5651087504909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3921766209611</c:v>
+                  <c:v>14.2266556378295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4546250817105</c:v>
+                  <c:v>14.939958665037601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.516480379089399</c:v>
+                  <c:v>15.6575647720564</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5783930045218</c:v>
+                  <c:v>16.414400297603098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.641875437842801</c:v>
+                  <c:v>17.198420392219202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.7047033211356</c:v>
+                  <c:v>18.0190128234185</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.7676077305593</c:v>
+                  <c:v>18.875271931741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.8320105788096</c:v>
+                  <c:v>19.7673071392868</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.895876035221301</c:v>
+                  <c:v>20.6986012443083</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.959806920693101</c:v>
+                  <c:v>21.666979952624501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.0253220613967</c:v>
+                  <c:v>22.675980290243899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.0902431140074</c:v>
+                  <c:v>23.7232651146435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$F$6:$F$24</c:f>
+              <c:f>p_.98_10!$F$6:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.96312451443774305</c:v>
+                  <c:v>0.63662016200000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95041772079113995</c:v>
+                  <c:v>0.62157653699999904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94872261663869195</c:v>
+                  <c:v>0.59148015399999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94560548519725696</c:v>
+                  <c:v>0.56093512899999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94075523462238297</c:v>
+                  <c:v>0.52952868799999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93692010853994601</c:v>
+                  <c:v>0.50186186399999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93316623641688201</c:v>
+                  <c:v>0.475909421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92944759027620505</c:v>
+                  <c:v>0.45184543399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92567526216236895</c:v>
+                  <c:v>0.42939709799999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92198382400808798</c:v>
+                  <c:v>0.408391427999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91833744483127699</c:v>
+                  <c:v>0.38879671799999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91462563368718297</c:v>
+                  <c:v>0.370420055999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91099547150226401</c:v>
+                  <c:v>0.35327067499999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90740574929712603</c:v>
+                  <c:v>0.33715109500000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.903754904122548</c:v>
+                  <c:v>0.32209742599999902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90018293090853496</c:v>
+                  <c:v>0.307936341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89664935067532503</c:v>
+                  <c:v>0.294706472</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89305971247014404</c:v>
+                  <c:v>0.28224306300000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88954474922762505</c:v>
+                  <c:v>0.27057310499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8837,133 +8389,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$M$6:$M$24</c:f>
+              <c:f>p_.98_10!$M$6:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>38.345788664151598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.693733653537905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.982474483939498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.185522879898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.45616485654401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.434801032488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217.544544012334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.91138060077498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>306.80203860417498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347.83637852619898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.09266375046298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>411.68653801304703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438.64483392618803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>479.05952128367602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>495.61563217755003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>558.07575567778304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>607.48640900278599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>609.64545189960097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>667.170547492688</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$N$6:$N$24</c:f>
+              <c:f>p_.98_10!$N$6:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.75793477903261097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62878827560586203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74037699281150404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65434345382827297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49723525438237298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51853080273459895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45310720644639702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32759121720439099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.326254173872913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29875625162187402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25078113160943399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27195280202359901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24027998886000601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17927657436171299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22525629437185299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172116886941557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.113218815390592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17012875393562299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11822331388834301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9002,78 +8440,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>p_.98_10!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15.2088174855835</c:v>
+                  <c:v>78.882448341051401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
+                  <c:v>110.882093705015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
+                  <c:v>158.525293971536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
+                  <c:v>171.70813082925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
+                  <c:v>222.943170964704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
+                  <c:v>231.61580000661201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
+                  <c:v>246.95941767952499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
+                  <c:v>253.77674167766699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
+                  <c:v>261.97344063312198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
+                  <c:v>268.81265079342302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
+                  <c:v>276.09622924885099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
+                  <c:v>283.28756640454998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
+                  <c:v>290.61619910060801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
+                  <c:v>297.98494796905499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
+                  <c:v>305.58399207265802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
+                  <c:v>313.19145750345803</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
+                  <c:v>320.90554320277897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
+                  <c:v>328.74981573858901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
+                  <c:v>336.69116676897102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>p_.98_10!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.94093055153472405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9546,7 +8984,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>periodic_10!$A$4</c:f>
+              <c:f>p_.98_.15!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9569,132 +9007,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$B$6:$B$24</c:f>
+              <c:f>p_.98_.15!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>101.274117706045</c:v>
+                  <c:v>16.585250988437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.58948661210201</c:v>
+                  <c:v>32.349457025360699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.57553076702698</c:v>
+                  <c:v>41.487114626310799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>548.48496059415402</c:v>
+                  <c:v>58.462352240559902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.47383581453698</c:v>
+                  <c:v>81.664277260459201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>836.54272103810695</c:v>
+                  <c:v>85.805127784569905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1056.5545515528399</c:v>
+                  <c:v>105.92623979984501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446.42846667188</c:v>
+                  <c:v>141.16083776638899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.0404708466101</c:v>
+                  <c:v>158.754726638655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1860.95521906207</c:v>
+                  <c:v>179.86802579145399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009.09613287097</c:v>
+                  <c:v>193.958634649262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.1721995712801</c:v>
+                  <c:v>215.35742069295901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2356.58410778605</c:v>
+                  <c:v>227.96095581867601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638.4687828637302</c:v>
+                  <c:v>252.876824234873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2676.19506828968</c:v>
+                  <c:v>257.17398157797902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3085.2885975883</c:v>
+                  <c:v>295.779984496476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425.5268648783899</c:v>
+                  <c:v>327.39422530688103</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3366.5054777028799</c:v>
+                  <c:v>322.64206886496498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3766.3386196966799</c:v>
+                  <c:v>359.65824903761899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$C$6:$C$24</c:f>
+              <c:f>p_.98_.15!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.746225784887107</c:v>
+                  <c:v>0.47875962762018598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55340867529566196</c:v>
+                  <c:v>0.34642184578907698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56113034443482801</c:v>
+                  <c:v>0.34062177568911101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46604918997540501</c:v>
+                  <c:v>0.28338206930896498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35166126116936902</c:v>
+                  <c:v>0.21208550995724501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41837343481328299</c:v>
+                  <c:v>0.25315530042234902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36090524854737599</c:v>
+                  <c:v>0.21631153484423199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228443642778179</c:v>
+                  <c:v>0.139760291119854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.218134256932872</c:v>
+                  <c:v>0.129209307395346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18980808509595801</c:v>
+                  <c:v>0.112807611596194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19915146442426801</c:v>
+                  <c:v>0.117545529227235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18014372392813799</c:v>
+                  <c:v>0.106135035932482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19026522186738901</c:v>
+                  <c:v>0.11582451908774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16137742031128999</c:v>
+                  <c:v>9.6251183874407995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.199428813285593</c:v>
+                  <c:v>0.11963085918457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.132863522568239</c:v>
+                  <c:v>7.8901975549012196E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5036184481907801E-2</c:v>
+                  <c:v>5.7249236375381797E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15179679910159999</c:v>
+                  <c:v>8.98582770708614E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.104249997875001</c:v>
+                  <c:v>6.1282792358603802E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9734,132 +9172,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$E$6:$E$24</c:f>
+              <c:f>p_.98_.15!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.90051022269075</c:v>
+                  <c:v>5.7003142978309196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4266207943043</c:v>
+                  <c:v>10.9847452845716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.703174795626399</c:v>
+                  <c:v>12.7235432171555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8841224306399</c:v>
+                  <c:v>14.1063084273769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.202039862324201</c:v>
+                  <c:v>16.362355353246301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2652762712598</c:v>
+                  <c:v>17.152884045909801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.327268959789199</c:v>
+                  <c:v>17.904744791537201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3921766209611</c:v>
+                  <c:v>18.9771034456483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4546250817105</c:v>
+                  <c:v>19.674508660832199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.516480379089399</c:v>
+                  <c:v>20.382682728053201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5783930045218</c:v>
+                  <c:v>21.192011489674499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.641875437842801</c:v>
+                  <c:v>21.936600308021401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.7047033211356</c:v>
+                  <c:v>22.700625889911599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.7676077305593</c:v>
+                  <c:v>23.5095803301849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.8320105788096</c:v>
+                  <c:v>24.328202641603301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.895876035221301</c:v>
+                  <c:v>25.168417612654402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.959806920693101</c:v>
+                  <c:v>26.040005204278501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.0253220613967</c:v>
+                  <c:v>26.9384851791011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.0902431140074</c:v>
+                  <c:v>27.859718128812599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$F$6:$F$24</c:f>
+              <c:f>p_.98_.15!$F$6:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.96312451443774305</c:v>
+                  <c:v>0.65563352318323798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95041772079113995</c:v>
+                  <c:v>0.57359193020403398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94872261663869195</c:v>
+                  <c:v>0.56304709847644996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94560548519725696</c:v>
+                  <c:v>0.54511522744238605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94075523462238297</c:v>
+                  <c:v>0.51933393033303399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93692010853994601</c:v>
+                  <c:v>0.49821439189280298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93316623641688201</c:v>
+                  <c:v>0.47834875982561997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92944759027620505</c:v>
+                  <c:v>0.45890440754779599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92567526216236895</c:v>
+                  <c:v>0.441018752490623</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92198382400808798</c:v>
+                  <c:v>0.42424967387516299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91833744483127699</c:v>
+                  <c:v>0.408288919855539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91462563368718297</c:v>
+                  <c:v>0.39310477444761199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91099547150226401</c:v>
+                  <c:v>0.37883955958021998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90740574929712603</c:v>
+                  <c:v>0.36529725535137197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.903754904122548</c:v>
+                  <c:v>0.35232143583928199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90018293090853496</c:v>
+                  <c:v>0.34011039594480102</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89664935067532503</c:v>
+                  <c:v>0.32852189573905199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89305971247014404</c:v>
+                  <c:v>0.31738115830941999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88954474922762505</c:v>
+                  <c:v>0.30688802455598702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9899,133 +9337,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$M$6:$M$24</c:f>
+              <c:f>p_.98_.15!$M$6:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>38.345788664151598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.693733653537905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.982474483939498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.185522879898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.45616485654401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.434801032488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217.544544012334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.91138060077498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>306.80203860417498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347.83637852619898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.09266375046298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>411.68653801304703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438.64483392618803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>479.05952128367602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>495.61563217755003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>558.07575567778304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>607.48640900278599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>609.64545189960097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>667.170547492688</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$N$6:$N$24</c:f>
+              <c:f>p_.98_.15!$N$6:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.75793477903261097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62878827560586203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74037699281150404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65434345382827297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49723525438237298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51853080273459895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45310720644639702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32759121720439099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.326254173872913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29875625162187402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25078113160943399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27195280202359901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24027998886000601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17927657436171299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22525629437185299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172116886941557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.113218815390592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17012875393562299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11822331388834301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10064,133 +9388,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>p_.98_.15!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>15.2088174855835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>p_.98_.15!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.94093055153472405</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10563,7 +9773,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> 15</a:t>
+              <a:t> 20</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10631,132 +9841,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$B$6:$B$24</c:f>
+              <c:f>p_.98_.20!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>101.274117706045</c:v>
+                  <c:v>12.2421795334699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.58948661210201</c:v>
+                  <c:v>25.1592132931363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.57553076702698</c:v>
+                  <c:v>31.453005652537499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>548.48496059415402</c:v>
+                  <c:v>55.964046952015202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.47383581453698</c:v>
+                  <c:v>66.400385964433497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>836.54272103810695</c:v>
+                  <c:v>89.360208888531304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1056.5545515528399</c:v>
+                  <c:v>81.929153960860901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446.42846667188</c:v>
+                  <c:v>119.822079346705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.0404708466101</c:v>
+                  <c:v>144.85248547428699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1860.95521906207</c:v>
+                  <c:v>160.96854959239801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009.09613287097</c:v>
+                  <c:v>166.34480426006999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.1721995712801</c:v>
+                  <c:v>206.11634999091899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2356.58410778605</c:v>
+                  <c:v>212.971009774717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638.4687828637302</c:v>
+                  <c:v>258.79075582607402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2676.19506828968</c:v>
+                  <c:v>234.62943332829201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3085.2885975883</c:v>
+                  <c:v>274.49383815379798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425.5268648783899</c:v>
+                  <c:v>303.44538407405099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3366.5054777028799</c:v>
+                  <c:v>341.89367361473001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3766.3386196966799</c:v>
+                  <c:v>332.48679806484603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$C$6:$C$24</c:f>
+              <c:f>p_.98_.20!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.746225784887107</c:v>
+                  <c:v>0.55585579899999904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55340867529566196</c:v>
+                  <c:v>0.42562514099999899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56113034443482801</c:v>
+                  <c:v>0.41529526699999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46604918997540501</c:v>
+                  <c:v>0.28755370899999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35166126116936902</c:v>
+                  <c:v>0.285344864999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41837343481328299</c:v>
+                  <c:v>0.22392213399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36090524854737599</c:v>
+                  <c:v>0.29560846499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228443642778179</c:v>
+                  <c:v>0.19865854299999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.218134256932872</c:v>
+                  <c:v>0.16002269899999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18980808509595801</c:v>
+                  <c:v>0.155421011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19915146442426801</c:v>
+                  <c:v>0.175422508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18014372392813799</c:v>
+                  <c:v>0.118098143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19026522186738901</c:v>
+                  <c:v>0.136831762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16137742031128999</c:v>
+                  <c:v>7.9066013999999907E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.199428813285593</c:v>
+                  <c:v>0.14954137399999901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.132863522568239</c:v>
+                  <c:v>0.108390875999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5036184481907801E-2</c:v>
+                  <c:v>8.7794110999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15179679910159999</c:v>
+                  <c:v>5.5453010999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.104249997875001</c:v>
+                  <c:v>9.1641890000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10796,132 +10006,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$E$6:$E$24</c:f>
+              <c:f>p_.98_.20!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.90051022269075</c:v>
+                  <c:v>5.5788482707926397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4266207943043</c:v>
+                  <c:v>8.2187168383490601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.703174795626399</c:v>
+                  <c:v>14.3333733568561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8841224306399</c:v>
+                  <c:v>16.047805758540001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.202039862324201</c:v>
+                  <c:v>17.4752309578565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2652762712598</c:v>
+                  <c:v>18.819378228247501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.327268959789199</c:v>
+                  <c:v>21.775446421150601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3921766209611</c:v>
+                  <c:v>22.635324118573902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4546250817105</c:v>
+                  <c:v>23.4511745269137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.516480379089399</c:v>
+                  <c:v>24.287278744023499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5783930045218</c:v>
+                  <c:v>25.595546308446298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.641875437842801</c:v>
+                  <c:v>26.3718089610263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.7047033211356</c:v>
+                  <c:v>27.160401278480101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.7676077305593</c:v>
+                  <c:v>27.976938742942799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.8320105788096</c:v>
+                  <c:v>28.9233336583615</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.895876035221301</c:v>
+                  <c:v>29.765864063545699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.959806920693101</c:v>
+                  <c:v>30.6319337747526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.0253220613967</c:v>
+                  <c:v>31.525573176417598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.0902431140074</c:v>
+                  <c:v>32.466067316816897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$F$6:$F$24</c:f>
+              <c:f>p_.98_.20!$F$6:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.96312451443774305</c:v>
+                  <c:v>0.65560339199999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95041772079113995</c:v>
+                  <c:v>0.60574547599999895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94872261663869195</c:v>
+                  <c:v>0.51563782899999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94560548519725696</c:v>
+                  <c:v>0.50855969400000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94075523462238297</c:v>
+                  <c:v>0.49444460099999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93692010853994601</c:v>
+                  <c:v>0.476908422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93316623641688201</c:v>
+                  <c:v>0.45641916999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92944759027620505</c:v>
+                  <c:v>0.44022912400000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92567526216236895</c:v>
+                  <c:v>0.42496673499999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92198382400808798</c:v>
+                  <c:v>0.41048294399999902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91833744483127699</c:v>
+                  <c:v>0.39640668499999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91462563368718297</c:v>
+                  <c:v>0.383479024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91099547150226401</c:v>
+                  <c:v>0.37123667699999902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90740574929712603</c:v>
+                  <c:v>0.35957464099999897</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.903754904122548</c:v>
+                  <c:v>0.34846271699999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90018293090853496</c:v>
+                  <c:v>0.33801346099999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89664935067532503</c:v>
+                  <c:v>0.32806186399999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89305971247014404</c:v>
+                  <c:v>0.31855238800000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88954474922762505</c:v>
+                  <c:v>0.30954762899999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10961,133 +10171,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$M$6:$M$24</c:f>
+              <c:f>p_.98_.20!$M$6:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>38.345788664151598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.693733653537905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.982474483939498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.185522879898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.45616485654401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.434801032488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217.544544012334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.91138060077498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>306.80203860417498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347.83637852619898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.09266375046298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>411.68653801304703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438.64483392618803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>479.05952128367602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>495.61563217755003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>558.07575567778304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>607.48640900278599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>609.64545189960097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>667.170547492688</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$N$6:$N$24</c:f>
+              <c:f>p_.98_.20!$N$6:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.75793477903261097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62878827560586203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74037699281150404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65434345382827297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49723525438237298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51853080273459895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45310720644639702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32759121720439099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.326254173872913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29875625162187402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25078113160943399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27195280202359901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24027998886000601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17927657436171299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22525629437185299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172116886941557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.113218815390592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17012875393562299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11822331388834301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11103,7 +10199,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>periodic_10!$G$4</c:f>
+              <c:f>p_.98_.20!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11126,81 +10222,81 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>p_.98_.20!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15.2088174855835</c:v>
+                  <c:v>20.471500057953399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
+                  <c:v>23.9954186067169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
+                  <c:v>147.12172949876799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
+                  <c:v>167.80627920096001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
+                  <c:v>183.76707798517899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
+                  <c:v>192.22985472320599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
+                  <c:v>467.79538608365999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
+                  <c:v>488.19799531616701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
+                  <c:v>504.40508889227698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
+                  <c:v>513.83962005308194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
+                  <c:v>934.90735908144495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
+                  <c:v>954.02335477218799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
+                  <c:v>970.38513177608399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
+                  <c:v>979.45843351964902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
+                  <c:v>1181.1073712626501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
+                  <c:v>1188.4248357567101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
+                  <c:v>1198.04039731643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
+                  <c:v>1205.0350292558401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
+                  <c:v>1236.26783747019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>p_.98_.20!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.94093055153472405</c:v>
+                  <c:v>0.47621486699999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.44355039099999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11278,6 +10374,7 @@
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19413,10 +18510,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19535,292 +18632,362 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>38.542161427611198</v>
+        <v>24.031061645568698</v>
       </c>
       <c r="C7">
-        <v>0.34411721299999998</v>
+        <v>0.42876481300000002</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>11.015621356289801</v>
+        <v>8.4136713502281708</v>
       </c>
       <c r="F7">
-        <v>0.562360736999999</v>
+        <v>0.60530245100000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>71.141654879134094</v>
+        <v>38.542161427611198</v>
       </c>
       <c r="C8">
-        <v>0.246944946</v>
+        <v>0.34411721299999998</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>19.629753139883601</v>
+        <v>11.015621356289801</v>
       </c>
       <c r="F8">
-        <v>0.45921429799999902</v>
+        <v>0.562360736999999</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>99.4692945378209</v>
+        <v>44.447627901583402</v>
       </c>
       <c r="C9">
-        <v>0.21414746100000001</v>
+        <v>0.35386901499999901</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>22.449047698058202</v>
+        <v>17.949183710526299</v>
       </c>
       <c r="F9">
-        <v>0.43370105399999997</v>
+        <v>0.465564909999999</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>130.38809023730099</v>
+        <v>71.141654879134094</v>
       </c>
       <c r="C10">
-        <v>0.19057221999999999</v>
+        <v>0.246944946</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>27.2136324655674</v>
+        <v>19.629753139883601</v>
       </c>
       <c r="F10">
-        <v>0.40299230800000002</v>
+        <v>0.45921429799999902</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>170.59176344855101</v>
+        <v>87.417265607557198</v>
       </c>
       <c r="C11">
-        <v>0.15296052499999899</v>
+        <v>0.22326465199999901</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>29.011608554994599</v>
+        <v>21.041971657385101</v>
       </c>
       <c r="F11">
-        <v>0.37823847999999899</v>
+        <v>0.44769031199999998</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>214.957137061465</v>
+        <v>99.4692945378209</v>
       </c>
       <c r="C12">
-        <v>0.12335884699999999</v>
+        <v>0.21414746100000001</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>30.777957339659501</v>
+        <v>22.449047698058202</v>
       </c>
       <c r="F12">
-        <v>0.355994545</v>
+        <v>0.43370105399999997</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>244.957245706885</v>
+        <v>119.869052669814</v>
       </c>
       <c r="C13">
-        <v>0.12152988000000001</v>
+        <v>0.18811176599999899</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>33.118347502837899</v>
+        <v>23.7735243352165</v>
       </c>
       <c r="F13">
-        <v>0.33561652800000003</v>
+        <v>0.41884391299999901</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>284.48844447883403</v>
+        <v>130.38809023730099</v>
       </c>
       <c r="C14">
-        <v>0.108326086</v>
+        <v>0.19057221999999999</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>34.853207565102203</v>
+        <v>27.2136324655674</v>
       </c>
       <c r="F14">
-        <v>0.31741475299999899</v>
+        <v>0.40299230800000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>308.034393561088</v>
+        <v>149.19960632736999</v>
       </c>
       <c r="C15">
-        <v>0.116537883999999</v>
+        <v>0.175897623999999</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>36.794598718530999</v>
+        <v>28.133178679741</v>
       </c>
       <c r="F15">
-        <v>0.30085956400000002</v>
+        <v>0.390275065999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>372.14832225589703</v>
+        <v>170.59176344855101</v>
       </c>
       <c r="C16">
-        <v>7.7347907999999896E-2</v>
+        <v>0.15296052499999899</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>29.011608554994599</v>
+      </c>
+      <c r="F16">
+        <v>0.37823847999999899</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>409.39991169540298</v>
+        <v>190.772832633186</v>
       </c>
       <c r="C17">
-        <v>7.2706387999999997E-2</v>
+        <v>0.14020564099999999</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>29.902371261935802</v>
+      </c>
+      <c r="F17">
+        <v>0.36684825399999899</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>433.28345633048099</v>
+        <v>214.957137061465</v>
       </c>
       <c r="C18">
-        <v>8.1843895999999902E-2</v>
+        <v>0.12335884699999999</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>30.777957339659501</v>
+      </c>
+      <c r="F18">
+        <v>0.355994545</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>498.54380802763802</v>
+        <v>235.15595635611399</v>
       </c>
       <c r="C19">
-        <v>5.6026132999999999E-2</v>
+        <v>0.114390506</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>32.2686418694691</v>
+      </c>
+      <c r="F19">
+        <v>0.34542590699999898</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>521.70504664944701</v>
+        <v>244.957245706885</v>
       </c>
       <c r="C20">
-        <v>6.4147276000000003E-2</v>
+        <v>0.12152988000000001</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>33.118347502837899</v>
+      </c>
+      <c r="F20">
+        <v>0.33561652800000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>550.95979590329205</v>
+        <v>272.606610163298</v>
       </c>
       <c r="C21">
-        <v>7.0700824999999995E-2</v>
+        <v>0.106214145</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>33.976565556247699</v>
+      </c>
+      <c r="F21">
+        <v>0.32628068699999901</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>618.93409221566196</v>
+        <v>284.48844447883403</v>
       </c>
       <c r="C22">
-        <v>4.6274955E-2</v>
+        <v>0.108326086</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>34.853207565102203</v>
+      </c>
+      <c r="F22">
+        <v>0.31741475299999899</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>638.83737133709997</v>
+        <v>306.49906106851898</v>
       </c>
       <c r="C23">
-        <v>5.4500959999999897E-2</v>
+        <v>9.8034050999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>35.742355466401797</v>
+      </c>
+      <c r="F23">
+        <v>0.308944362999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>680.35551250411004</v>
+        <v>308.034393561088</v>
       </c>
       <c r="C24">
-        <v>4.998114E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>701.622896751658</v>
-      </c>
-      <c r="C25">
-        <v>5.9873350999999998E-2</v>
+        <v>0.116537883999999</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>36.794598718530999</v>
+      </c>
+      <c r="F24">
+        <v>0.30085956400000002</v>
       </c>
     </row>
   </sheetData>
@@ -19831,10 +18998,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19953,292 +19120,362 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>39.307418404685102</v>
+        <v>23.0433024118263</v>
       </c>
       <c r="C7">
-        <v>0.327672472655054</v>
+        <v>0.43008866082267799</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>10.8633864073668</v>
+        <v>8.1581368775404997</v>
       </c>
       <c r="F7">
-        <v>0.55926264647470703</v>
+        <v>0.60402315095369796</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>60.303298634322203</v>
+        <v>39.307418404685102</v>
       </c>
       <c r="C8">
-        <v>0.286906281187437</v>
+        <v>0.327672472655054</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>21.473101002819799</v>
+        <v>10.8633864073668</v>
       </c>
       <c r="F8">
-        <v>0.41891419017161902</v>
+        <v>0.55926264647470703</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>99.383793474793094</v>
+        <v>42.719782521511199</v>
       </c>
       <c r="C9">
-        <v>0.20815945268109401</v>
+        <v>0.34775397049205897</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>24.737001997364001</v>
+        <v>13.3255652580995</v>
       </c>
       <c r="F9">
-        <v>0.40662436375127198</v>
+        <v>0.51851850596298699</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>132.034806425422</v>
+        <v>60.303298634322203</v>
       </c>
       <c r="C10">
-        <v>0.17905650588698799</v>
+        <v>0.286906281187437</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>27.460133041332401</v>
+        <v>21.473101002819799</v>
       </c>
       <c r="F10">
-        <v>0.38515635368729201</v>
+        <v>0.41891419017161902</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>173.54062393539499</v>
+        <v>73.636660323894603</v>
       </c>
       <c r="C11">
-        <v>0.141253231493537</v>
+        <v>0.26186611126777698</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>32.937770323746598</v>
+        <v>23.254955930835301</v>
       </c>
       <c r="F11">
-        <v>0.36216623966751998</v>
+        <v>0.41491317817364298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>196.91951096914801</v>
+        <v>99.383793474793094</v>
       </c>
       <c r="C12">
-        <v>0.14279862140275701</v>
+        <v>0.20815945268109401</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>34.813573268069497</v>
+        <v>24.737001997364001</v>
       </c>
       <c r="F12">
-        <v>0.34346550006899901</v>
+        <v>0.40662436375127198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>240.52946884551</v>
+        <v>106.45574777331601</v>
       </c>
       <c r="C13">
-        <v>0.12161569476861001</v>
+        <v>0.21598406803186301</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>36.607504882547602</v>
+        <v>26.075377456343599</v>
       </c>
       <c r="F13">
-        <v>0.32632523534952901</v>
+        <v>0.396050800898398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>273.47067769593502</v>
+        <v>132.034806425422</v>
       </c>
       <c r="C14">
-        <v>0.114088913822172</v>
+        <v>0.17905650588698799</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>39.225823160899402</v>
+        <v>27.460133041332401</v>
       </c>
       <c r="F14">
-        <v>0.310416546166907</v>
+        <v>0.38515635368729201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>320.70483956956599</v>
+        <v>150.69642999346399</v>
       </c>
       <c r="C15">
-        <v>9.5517599964799998E-2</v>
+        <v>0.16087714624570701</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>40.971547856459601</v>
+        <v>28.796478723898101</v>
       </c>
       <c r="F15">
-        <v>0.29588100723798499</v>
+        <v>0.37401096097807801</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>348.56514427833901</v>
+        <v>173.54062393539499</v>
       </c>
       <c r="C16">
-        <v>9.8408250183499593E-2</v>
+        <v>0.141253231493537</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>32.937770323746598</v>
+      </c>
+      <c r="F16">
+        <v>0.36216623966751998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>393.53974592183499</v>
+        <v>175.77350037420899</v>
       </c>
       <c r="C17">
-        <v>8.5597928804142395E-2</v>
+        <v>0.160596755806488</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>33.900435029428699</v>
+      </c>
+      <c r="F17">
+        <v>0.35258354083291799</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>419.000603589886</v>
+        <v>196.91951096914801</v>
       </c>
       <c r="C18">
-        <v>8.79397721204557E-2</v>
+        <v>0.14279862140275701</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>34.813573268069497</v>
+      </c>
+      <c r="F18">
+        <v>0.34346550006899901</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>483.32503127688602</v>
+        <v>185.292147466226</v>
       </c>
       <c r="C19">
-        <v>6.1676639646720703E-2</v>
+        <v>0.186965626068747</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>35.698550316028403</v>
+      </c>
+      <c r="F19">
+        <v>0.33474171551656801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>506.850841920883</v>
+        <v>240.52946884551</v>
       </c>
       <c r="C20">
-        <v>7.3843732312535298E-2</v>
+        <v>0.12161569476861001</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>36.607504882547602</v>
+      </c>
+      <c r="F20">
+        <v>0.32632523534952901</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>541.09963787568302</v>
+        <v>264.49660804243501</v>
       </c>
       <c r="C21">
-        <v>6.9809788380423204E-2</v>
+        <v>0.10763606672786601</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>37.518794367324503</v>
+      </c>
+      <c r="F21">
+        <v>0.318259918480163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>598.72292632032304</v>
+        <v>273.47067769593502</v>
       </c>
       <c r="C22">
-        <v>5.46764226471547E-2</v>
+        <v>0.114088913822172</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>39.225823160899402</v>
+      </c>
+      <c r="F22">
+        <v>0.310416546166907</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>649.37588210211902</v>
+        <v>266.71487093640297</v>
       </c>
       <c r="C23">
-        <v>4.5159384681230597E-2</v>
+        <v>0.13975648548702899</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>40.0975968163971</v>
+      </c>
+      <c r="F23">
+        <v>0.30297768704462502</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>624.67593870380699</v>
+        <v>320.70483956956599</v>
       </c>
       <c r="C24">
-        <v>7.8002233995531994E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>689.44215752826597</v>
-      </c>
-      <c r="C25">
-        <v>6.2243604512790901E-2</v>
+        <v>9.5517599964799998E-2</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>40.971547856459601</v>
+      </c>
+      <c r="F24">
+        <v>0.29588100723798499</v>
       </c>
     </row>
   </sheetData>
@@ -23439,7 +22676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -24477,10 +23714,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24598,295 +23835,536 @@
       <c r="F6">
         <v>0.63662016200000004</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>78.882448341051401</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>52.445446459945899</v>
+        <v>33.851416112632201</v>
       </c>
       <c r="C7">
-        <v>0.25270917500000001</v>
+        <v>0.33110836799999999</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>10.499134608384299</v>
+        <v>9.1185556880968797</v>
       </c>
       <c r="F7">
-        <v>0.59148015399999998</v>
+        <v>0.62157653699999904</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>110.882093705015</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>94.0732944092167</v>
+        <v>52.445446459945899</v>
       </c>
       <c r="C8">
-        <v>0.150597169</v>
+        <v>0.25270917500000001</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>12.2131384733338</v>
+        <v>10.499134608384299</v>
       </c>
       <c r="F8">
-        <v>0.52952868799999897</v>
+        <v>0.59148015399999998</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>158.525293971536</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>135.29058118368499</v>
+        <v>65.616627677306894</v>
       </c>
       <c r="C9">
-        <v>0.106420216</v>
+        <v>0.24450696299999899</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>13.5651087504909</v>
+        <v>11.240732008459</v>
       </c>
       <c r="F9">
-        <v>0.475909421</v>
+        <v>0.56093512899999998</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>171.70813082925</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>161.43629596343101</v>
+        <v>94.0732944092167</v>
       </c>
       <c r="C10">
-        <v>0.12986096599999999</v>
+        <v>0.150597169</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>14.939958665037601</v>
+        <v>12.2131384733338</v>
       </c>
       <c r="F10">
-        <v>0.42939709799999998</v>
+        <v>0.52952868799999897</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>222.943170964704</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>220.09187308852799</v>
+        <v>108.412164607254</v>
       </c>
       <c r="C11">
-        <v>5.5611626999999997E-2</v>
+        <v>0.15680648999999899</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>16.414400297603098</v>
+        <v>12.8504070395414</v>
       </c>
       <c r="F11">
-        <v>0.38879671799999899</v>
+        <v>0.50186186399999899</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>231.61580000661201</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>254.47164762505699</v>
+        <v>135.29058118368499</v>
       </c>
       <c r="C12">
-        <v>6.1620019999999998E-2</v>
+        <v>0.106420216</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>18.0190128234185</v>
+        <v>13.5651087504909</v>
       </c>
       <c r="F12">
-        <v>0.35327067499999998</v>
+        <v>0.475909421</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>246.95941767952499</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>287.18832725498402</v>
+        <v>141.960818298096</v>
       </c>
       <c r="C13">
-        <v>6.8421222000000004E-2</v>
+        <v>0.14290760799999999</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>19.7673071392868</v>
+        <v>14.2266556378295</v>
       </c>
       <c r="F13">
-        <v>0.32209742599999902</v>
+        <v>0.45184543399999999</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>253.77674167766699</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>326.13396629968599</v>
+        <v>161.43629596343101</v>
       </c>
       <c r="C14">
-        <v>6.2202392000000002E-2</v>
+        <v>0.12986096599999999</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>21.666979952624501</v>
+        <v>14.939958665037601</v>
       </c>
       <c r="F14">
-        <v>0.294706472</v>
+        <v>0.42939709799999998</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>261.97344063312198</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>378.30755957248198</v>
+        <v>189.017459582078</v>
       </c>
       <c r="C15">
-        <v>3.6942548999999998E-2</v>
+        <v>9.3471810000000002E-2</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>23.7232651146435</v>
+        <v>15.6575647720564</v>
       </c>
       <c r="F15">
-        <v>0.27057310499999998</v>
+        <v>0.408391427999999</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <v>268.81265079342302</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>402.13457488320699</v>
+        <v>220.09187308852799</v>
       </c>
       <c r="C16">
-        <v>5.5971402000000003E-2</v>
+        <v>5.5611626999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>16.414400297603098</v>
+      </c>
+      <c r="F16">
+        <v>0.38879671799999899</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>276.09622924885099</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>472.33853115208001</v>
+        <v>219.28528005808499</v>
       </c>
       <c r="C17">
-        <v>1.2301704999999901E-2</v>
+        <v>0.105568419</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>17.198420392219202</v>
+      </c>
+      <c r="F17">
+        <v>0.370420055999999</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>283.28756640454998</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>457.00576947334798</v>
+        <v>254.47164762505699</v>
       </c>
       <c r="C18">
-        <v>7.9992068999999999E-2</v>
+        <v>6.1620019999999998E-2</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>18.0190128234185</v>
+      </c>
+      <c r="F18">
+        <v>0.35327067499999998</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18">
+        <v>290.61619910060801</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>547.88447705625799</v>
+        <v>258.16909013946099</v>
       </c>
       <c r="C19">
-        <v>1.8454854E-2</v>
+        <v>9.2554620999999906E-2</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>18.875271931741</v>
+      </c>
+      <c r="F19">
+        <v>0.33715109500000001</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>297.98494796905499</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>554.05783773489304</v>
+        <v>287.18832725498402</v>
       </c>
       <c r="C20">
-        <v>4.9239713999999997E-2</v>
+        <v>6.8421222000000004E-2</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>19.7673071392868</v>
+      </c>
+      <c r="F20">
+        <v>0.32209742599999902</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>305.58399207265802</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>592.80792435638796</v>
+        <v>321.07704227369197</v>
       </c>
       <c r="C21">
-        <v>4.9210142999999998E-2</v>
+        <v>3.7019549999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>20.6986012443083</v>
+      </c>
+      <c r="F21">
+        <v>0.307936341</v>
+      </c>
+      <c r="G21">
+        <v>85</v>
+      </c>
+      <c r="H21">
+        <v>313.19145750345803</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>669.508242663847</v>
+        <v>326.13396629968599</v>
       </c>
       <c r="C22">
-        <v>1.2322720000000001E-2</v>
+        <v>6.2202392000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>21.666979952624501</v>
+      </c>
+      <c r="F22">
+        <v>0.294706472</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>320.90554320277897</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>715.92466798363205</v>
+        <v>353.17077390104203</v>
       </c>
       <c r="C23">
-        <v>6.1672899999999998E-3</v>
+        <v>4.9321921999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>22.675980290243899</v>
+      </c>
+      <c r="F23">
+        <v>0.28224306300000002</v>
+      </c>
+      <c r="G23">
+        <v>95</v>
+      </c>
+      <c r="H23">
+        <v>328.74981573858901</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>747.13519179699995</v>
+        <v>378.30755957248198</v>
       </c>
       <c r="C24">
-        <v>1.8456383999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>794.43665823623598</v>
-      </c>
-      <c r="C25">
-        <v>6.146342E-3</v>
+        <v>3.6942548999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>23.7232651146435</v>
+      </c>
+      <c r="F24">
+        <v>0.27057310499999998</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>336.69116676897102</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24897,10 +24375,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25019,292 +24497,362 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>41.487114626310799</v>
+        <v>32.349457025360699</v>
       </c>
       <c r="C7">
-        <v>0.34062177568911101</v>
+        <v>0.34642184578907698</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>12.7235432171555</v>
+        <v>10.9847452845716</v>
       </c>
       <c r="F7">
-        <v>0.56304709847644996</v>
+        <v>0.57359193020403398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>81.664277260459201</v>
+        <v>41.487114626310799</v>
       </c>
       <c r="C8">
-        <v>0.21208550995724501</v>
+        <v>0.34062177568911101</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>16.362355353246301</v>
+        <v>12.7235432171555</v>
       </c>
       <c r="F8">
-        <v>0.51933393033303399</v>
+        <v>0.56304709847644996</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>105.92623979984501</v>
+        <v>58.462352240559902</v>
       </c>
       <c r="C9">
-        <v>0.21631153484423199</v>
+        <v>0.28338206930896498</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>17.904744791537201</v>
+        <v>14.1063084273769</v>
       </c>
       <c r="F9">
-        <v>0.47834875982561997</v>
+        <v>0.54511522744238605</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>158.754726638655</v>
+        <v>81.664277260459201</v>
       </c>
       <c r="C10">
-        <v>0.129209307395346</v>
+        <v>0.21208550995724501</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>19.674508660832199</v>
+        <v>16.362355353246301</v>
       </c>
       <c r="F10">
-        <v>0.441018752490623</v>
+        <v>0.51933393033303399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>193.958634649262</v>
+        <v>85.805127784569905</v>
       </c>
       <c r="C11">
-        <v>0.117545529227235</v>
+        <v>0.25315530042234902</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>21.192011489674499</v>
+        <v>17.152884045909801</v>
       </c>
       <c r="F11">
-        <v>0.408288919855539</v>
+        <v>0.49821439189280298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>227.96095581867601</v>
+        <v>105.92623979984501</v>
       </c>
       <c r="C12">
-        <v>0.11582451908774</v>
+        <v>0.21631153484423199</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>22.700625889911599</v>
+        <v>17.904744791537201</v>
       </c>
       <c r="F12">
-        <v>0.37883955958021998</v>
+        <v>0.47834875982561997</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>257.17398157797902</v>
+        <v>141.16083776638899</v>
       </c>
       <c r="C13">
-        <v>0.11963085918457</v>
+        <v>0.139760291119854</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>24.328202641603301</v>
+        <v>18.9771034456483</v>
       </c>
       <c r="F13">
-        <v>0.35232143583928199</v>
+        <v>0.45890440754779599</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>327.39422530688103</v>
+        <v>158.754726638655</v>
       </c>
       <c r="C14">
-        <v>5.7249236375381797E-2</v>
+        <v>0.129209307395346</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>26.040005204278501</v>
+        <v>19.674508660832199</v>
       </c>
       <c r="F14">
-        <v>0.32852189573905199</v>
+        <v>0.441018752490623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>359.65824903761899</v>
+        <v>179.86802579145399</v>
       </c>
       <c r="C15">
-        <v>6.1282792358603802E-2</v>
+        <v>0.112807611596194</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>27.859718128812599</v>
+        <v>20.382682728053201</v>
       </c>
       <c r="F15">
-        <v>0.30688802455598702</v>
+        <v>0.42424967387516299</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>394.21041471226999</v>
+        <v>193.958634649262</v>
       </c>
       <c r="C16">
-        <v>6.12673643663178E-2</v>
+        <v>0.117545529227235</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>21.192011489674499</v>
+      </c>
+      <c r="F16">
+        <v>0.408288919855539</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>421.70086034221498</v>
+        <v>215.35742069295901</v>
       </c>
       <c r="C17">
-        <v>7.2406854796572606E-2</v>
+        <v>0.106135035932482</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>21.936600308021401</v>
+      </c>
+      <c r="F17">
+        <v>0.39310477444761199</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>503.596922803241</v>
+        <v>227.96095581867601</v>
       </c>
       <c r="C18">
-        <v>2.2252900873549499E-2</v>
+        <v>0.11582451908774</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>22.700625889911599</v>
+      </c>
+      <c r="F18">
+        <v>0.37883955958021998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>501.73376558384899</v>
+        <v>252.876824234873</v>
       </c>
       <c r="C19">
-        <v>6.1213503393248297E-2</v>
+        <v>9.6251183874407995E-2</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>23.5095803301849</v>
+      </c>
+      <c r="F19">
+        <v>0.36529725535137197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>556.00899128511696</v>
+        <v>257.17398157797902</v>
       </c>
       <c r="C20">
-        <v>4.5115270442364699E-2</v>
+        <v>0.11963085918457</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>24.328202641603301</v>
+      </c>
+      <c r="F20">
+        <v>0.35232143583928199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>567.71675517246399</v>
+        <v>295.779984496476</v>
       </c>
       <c r="C21">
-        <v>6.7470159264920296E-2</v>
+        <v>7.8901975549012196E-2</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>25.168417612654402</v>
+      </c>
+      <c r="F21">
+        <v>0.34011039594480102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>656.26441823413495</v>
+        <v>327.39422530688103</v>
       </c>
       <c r="C22">
-        <v>2.2245713877143001E-2</v>
+        <v>5.7249236375381797E-2</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>26.040005204278501</v>
+      </c>
+      <c r="F22">
+        <v>0.32852189573905199</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>676.22706957436401</v>
+        <v>322.64206886496498</v>
       </c>
       <c r="C23">
-        <v>3.8944194527902702E-2</v>
+        <v>8.98582770708614E-2</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>26.9384851791011</v>
+      </c>
+      <c r="F23">
+        <v>0.31738115830941999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>715.08762656286603</v>
+        <v>359.65824903761899</v>
       </c>
       <c r="C24">
-        <v>3.4082972958513501E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>741.62260126204205</v>
-      </c>
-      <c r="C25">
-        <v>4.4476838761580602E-2</v>
+        <v>6.1282792358603802E-2</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>27.859718128812599</v>
+      </c>
+      <c r="F24">
+        <v>0.30688802455598702</v>
       </c>
     </row>
   </sheetData>
@@ -25315,16 +24863,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -25434,295 +24983,536 @@
       <c r="F6">
         <v>0.65560339199999995</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>20.471500057953399</v>
+      </c>
+      <c r="I6">
+        <v>0.47621486699999999</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>31.453005652537499</v>
+        <v>25.1592132931363</v>
       </c>
       <c r="C7">
-        <v>0.41529526699999902</v>
+        <v>0.42562514099999899</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>14.3333733568561</v>
+        <v>8.2187168383490601</v>
       </c>
       <c r="F7">
-        <v>0.51563782899999899</v>
+        <v>0.60574547599999895</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>23.9954186067169</v>
+      </c>
+      <c r="I7">
+        <v>0.44355039099999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>66.400385964433497</v>
+        <v>31.453005652537499</v>
       </c>
       <c r="C8">
-        <v>0.285344864999999</v>
+        <v>0.41529526699999902</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>17.4752309578565</v>
+        <v>14.3333733568561</v>
       </c>
       <c r="F8">
-        <v>0.49444460099999998</v>
+        <v>0.51563782899999899</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>147.12172949876799</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>81.929153960860901</v>
+        <v>55.964046952015202</v>
       </c>
       <c r="C9">
-        <v>0.29560846499999999</v>
+        <v>0.28755370899999999</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>21.775446421150601</v>
+        <v>16.047805758540001</v>
       </c>
       <c r="F9">
-        <v>0.45641916999999999</v>
+        <v>0.50855969400000001</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>167.80627920096001</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>144.85248547428699</v>
+        <v>66.400385964433497</v>
       </c>
       <c r="C10">
-        <v>0.16002269899999999</v>
+        <v>0.285344864999999</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>23.4511745269137</v>
+        <v>17.4752309578565</v>
       </c>
       <c r="F10">
-        <v>0.42496673499999899</v>
+        <v>0.49444460099999998</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>183.76707798517899</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>166.34480426006999</v>
+        <v>89.360208888531304</v>
       </c>
       <c r="C11">
-        <v>0.175422508</v>
+        <v>0.22392213399999999</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>25.595546308446298</v>
+        <v>18.819378228247501</v>
       </c>
       <c r="F11">
-        <v>0.39640668499999898</v>
+        <v>0.476908422</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>192.22985472320599</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>212.971009774717</v>
+        <v>81.929153960860901</v>
       </c>
       <c r="C12">
-        <v>0.136831762</v>
+        <v>0.29560846499999999</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>27.160401278480101</v>
+        <v>21.775446421150601</v>
       </c>
       <c r="F12">
-        <v>0.37123667699999902</v>
+        <v>0.45641916999999999</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>467.79538608365999</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>234.62943332829201</v>
+        <v>119.822079346705</v>
       </c>
       <c r="C13">
-        <v>0.14954137399999901</v>
+        <v>0.19865854299999999</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>28.9233336583615</v>
+        <v>22.635324118573902</v>
       </c>
       <c r="F13">
-        <v>0.34846271699999998</v>
+        <v>0.44022912400000003</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>488.19799531616701</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>303.44538407405099</v>
+        <v>144.85248547428699</v>
       </c>
       <c r="C14">
-        <v>8.7794110999999994E-2</v>
+        <v>0.16002269899999999</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>30.6319337747526</v>
+        <v>23.4511745269137</v>
       </c>
       <c r="F14">
-        <v>0.32806186399999998</v>
+        <v>0.42496673499999899</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>504.40508889227698</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>332.48679806484603</v>
+        <v>160.96854959239801</v>
       </c>
       <c r="C15">
-        <v>9.1641890000000004E-2</v>
+        <v>0.155421011</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>32.466067316816897</v>
+        <v>24.287278744023499</v>
       </c>
       <c r="F15">
-        <v>0.30954762899999899</v>
+        <v>0.41048294399999902</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <v>513.83962005308194</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>362.01580448503898</v>
+        <v>166.34480426006999</v>
       </c>
       <c r="C16">
-        <v>9.7510937000000006E-2</v>
+        <v>0.175422508</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>25.595546308446298</v>
+      </c>
+      <c r="F16">
+        <v>0.39640668499999898</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>934.90735908144495</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>362.97096833479799</v>
+        <v>206.11634999091899</v>
       </c>
       <c r="C17">
-        <v>0.13353016299999901</v>
+        <v>0.118098143</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>26.3718089610263</v>
+      </c>
+      <c r="F17">
+        <v>0.383479024</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>954.02335477218799</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>461.94815218814</v>
+        <v>212.971009774717</v>
       </c>
       <c r="C18">
-        <v>6.1358476000000002E-2</v>
+        <v>0.136831762</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>27.160401278480101</v>
+      </c>
+      <c r="F18">
+        <v>0.37123667699999902</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18">
+        <v>970.38513177608399</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>491.51106541026502</v>
+        <v>258.79075582607402</v>
       </c>
       <c r="C19">
-        <v>6.7276933999999997E-2</v>
+        <v>7.9066013999999907E-2</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>27.976938742942799</v>
+      </c>
+      <c r="F19">
+        <v>0.35957464099999897</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>979.45843351964902</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>552.63977405248897</v>
+        <v>234.62943332829201</v>
       </c>
       <c r="C20">
-        <v>4.0266699999999898E-2</v>
+        <v>0.14954137399999901</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>28.9233336583615</v>
+      </c>
+      <c r="F20">
+        <v>0.34846271699999998</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>1181.1073712626501</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>545.25673085241601</v>
+        <v>274.49383815379798</v>
       </c>
       <c r="C21">
-        <v>8.1418779999999996E-2</v>
+        <v>0.108390875999999</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>29.765864063545699</v>
+      </c>
+      <c r="F21">
+        <v>0.33801346099999902</v>
+      </c>
+      <c r="G21">
+        <v>85</v>
+      </c>
+      <c r="H21">
+        <v>1188.4248357567101</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>602.07136134502605</v>
+        <v>303.44538407405099</v>
       </c>
       <c r="C22">
-        <v>6.7187903999999896E-2</v>
+        <v>8.7794110999999994E-2</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>30.6319337747526</v>
+      </c>
+      <c r="F22">
+        <v>0.32806186399999998</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>1198.04039731643</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>658.46429886427097</v>
+        <v>341.89367361473001</v>
       </c>
       <c r="C23">
-        <v>4.5211887999999999E-2</v>
+        <v>5.5453010999999899E-2</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>31.525573176417598</v>
+      </c>
+      <c r="F23">
+        <v>0.31855238800000002</v>
+      </c>
+      <c r="G23">
+        <v>95</v>
+      </c>
+      <c r="H23">
+        <v>1205.0350292558401</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>716.70545734824395</v>
+        <v>332.48679806484603</v>
       </c>
       <c r="C24">
-        <v>3.0175723000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>724.50460617672297</v>
-      </c>
-      <c r="C25">
-        <v>5.0304873999999902E-2</v>
+        <v>9.1641890000000004E-2</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>32.466067316816897</v>
+      </c>
+      <c r="F24">
+        <v>0.30954762899999899</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1236.26783747019</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/periodicRunnings.xlsx
+++ b/graphs/periodicRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="463" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_10" sheetId="1" r:id="rId1"/>
@@ -716,21 +716,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>periodic_10!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2min_equals</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -743,132 +735,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_10!$H$6:$H$24</c:f>
+              <c:f>periodic_10!$P$6:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1099.8152062807601</c:v>
+                  <c:v>20.063645987823399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1708.26334297166</c:v>
+                  <c:v>20.31844535271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2128.3627133146001</c:v>
+                  <c:v>30.255746055551501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2136.10920471687</c:v>
+                  <c:v>30.579633301208901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2176.3723107630399</c:v>
+                  <c:v>40.520575332796902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2181.08370555893</c:v>
+                  <c:v>40.951408378667601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2186.1175586120398</c:v>
+                  <c:v>50.898621934599497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2192.3377348621402</c:v>
+                  <c:v>51.437475979684997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2197.0824045501299</c:v>
+                  <c:v>61.3891426335787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2202.3338740975701</c:v>
+                  <c:v>62.037070149662597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2207.7119168520499</c:v>
+                  <c:v>71.993546127470594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2212.6786281454101</c:v>
+                  <c:v>72.749415166456302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2217.8558002874402</c:v>
+                  <c:v>82.7233529597559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2223.3222584669102</c:v>
+                  <c:v>83.5849887741945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2228.3843288409198</c:v>
+                  <c:v>93.563832881873395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2233.2505106692101</c:v>
+                  <c:v>94.532222933623203</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2238.7837895478301</c:v>
+                  <c:v>104.52366009203099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2244.0595365764598</c:v>
+                  <c:v>105.596705599738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2249.2360122249902</c:v>
+                  <c:v>115.597738928852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_10!$I$6:$I$24</c:f>
+              <c:f>periodic_10!$Q$6:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.93785259300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.92697688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.90690468599999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.89691537200000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.87549874299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.86561258699999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.84524747099999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.83575126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.81643379800000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.80773717199999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.78778589600000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.77932549900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.76017417700000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.75174923500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.73386578300000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.72608320500000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.70826829199999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.70052828199999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.68382092500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-74BE-455A-A4E2-2168ADABC8BA}"/>
+              <c16:uniqueId val="{00000000-2E51-4AEF-99AB-8E40A0CF003E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -890,11 +882,201 @@
         </c:dLbls>
         <c:axId val="411149832"/>
         <c:axId val="411150160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2min</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$H$6:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>1099.8152062807601</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1708.26334297166</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2128.3627133146001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2136.10920471687</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2176.3723107630399</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2181.08370555893</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2186.1175586120398</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2192.3377348621402</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2197.0824045501299</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2202.3338740975701</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2207.7119168520499</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2212.6786281454101</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2217.8558002874402</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2223.3222584669102</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2228.3843288409198</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2233.2505106692101</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2238.7837895478301</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2244.0595365764598</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2249.2360122249902</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$I$6:$I$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-74BE-455A-A4E2-2168ADABC8BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3454,21 +3636,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>periodic_10!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2min_equals</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -3481,7 +3655,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_15!$H$6:$H$24</c:f>
+              <c:f>periodic_15!$P$6:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3489,65 +3663,65 @@
                   <c:v>15.2088174855835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2059.19510837897</c:v>
+                  <c:v>30.098070826549101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2183.6547479842202</c:v>
+                  <c:v>30.3479724344738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230.9221823595799</c:v>
+                  <c:v>30.593976436397501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2919.9475805736802</c:v>
+                  <c:v>45.333976390277698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2924.6173378131798</c:v>
+                  <c:v>45.699439932940798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2929.8164685387901</c:v>
+                  <c:v>46.064354307169602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2934.8348184475299</c:v>
+                  <c:v>60.750141193663701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2939.6757948409299</c:v>
+                  <c:v>61.236524682774402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2944.78060677442</c:v>
+                  <c:v>61.724451508731001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2951.3922092487501</c:v>
+                  <c:v>76.361808972431803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2956.6488021404898</c:v>
+                  <c:v>76.972513484957005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2961.6673188049599</c:v>
+                  <c:v>77.580466532911601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2966.6615975694499</c:v>
+                  <c:v>92.169160425550999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2972.3009925491401</c:v>
+                  <c:v>92.895030818607793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2978.2639768436902</c:v>
+                  <c:v>93.626849454012401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2983.5981636112301</c:v>
+                  <c:v>108.16721872655501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2988.4976140726399</c:v>
+                  <c:v>109.013656984279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2993.3256535447099</c:v>
+                  <c:v>109.871791621138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_15!$I$6:$I$24</c:f>
+              <c:f>periodic_15!$Q$6:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3555,58 +3729,58 @@
                   <c:v>0.94093055153472405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91716355341822298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.91017832891083505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.90297147951426004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.87686091456954296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.86974859312570296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.86268233865883004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.83623276288361803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.83002274098862905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.82364114717942605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.79828213585893204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.79191594804202603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.78565589517205203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.76134846032576897</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.75537539531230202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.749374667312667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.72624426287786903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.72056887571556205</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.71486535456732303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3E8B-480B-8753-474356559308}"/>
+              <c16:uniqueId val="{00000000-5AD0-4E42-8704-764273D0A39D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3628,11 +3802,201 @@
         </c:dLbls>
         <c:axId val="411149832"/>
         <c:axId val="411150160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_10!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2min</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_15!$H$6:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>15.2088174855835</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2059.19510837897</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2183.6547479842202</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2230.9221823595799</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2919.9475805736802</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2924.6173378131798</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2929.8164685387901</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2934.8348184475299</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2939.6757948409299</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2944.78060677442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2951.3922092487501</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2956.6488021404898</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2961.6673188049599</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2966.6615975694499</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2972.3009925491401</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2978.2639768436902</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2983.5981636112301</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2988.4976140726399</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2993.3256535447099</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_15!$I$6:$I$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.94093055153472405</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3E8B-480B-8753-474356559308}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4179,6 +4543,499 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>periodic_10!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_20!$E$6:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.7441108895681303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5204905528128592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.182430844022399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.465203955876401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.655731907068098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.834323809149801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.269702040172501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.3427813268911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.4154796887195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.489153905746701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.568161644204299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.640637943218199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.7136172195464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.787565331074202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.861960924576699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.9358155883492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.010330396538698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.0858772313385</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.161715928282199</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_20!$F$6:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.96316640899999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95555422700000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94047997299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93924454499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93658622000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93310640700000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92892862499999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92562182100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92233524499999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91904303399999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91575336900000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.912517778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90930150099999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90607865399999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90286736499999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89970689199999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89655777599999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89340206899999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89025996799999996</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6245-411A-8E60-7788715AF061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>periodic_15!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_20!$M$6:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>24.2649345663676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.349204660667901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2250808727444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.641226819978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.96770138397801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.19810302008199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176.059433314366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247.01457749281099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288.50548618320403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320.71258457944901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>334.84569373704198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>401.57549553695202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.73170696010402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>492.51072570597898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>463.48417536458498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>527.64994992456297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>580.25214968444402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>641.90030706003495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>634.22298014026001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_20!$N$6:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.52465583900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77125564499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66478425600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62643299900000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58380656399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52768027399999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52251231799999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46850050300000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37336813000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34729222500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36674891199999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.279242451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.267654479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20129681899999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26339364100000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.197914534</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.189186191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.142628159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16877724099999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6245-411A-8E60-7788715AF061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2min_equals</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic_20!$P$6:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20.0493457045017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.384381984160299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.093359451468601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.3861280116909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.6775102458204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.9687855872005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.451224111242901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.876790367618497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.307225022449003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.745175676619397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.097704791943201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.668133412749597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.240545910791596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.820636214649696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.058435170805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.769687910063</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103.4850183759</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.209627913576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123.32698435741401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic_20!$Q$6:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.93292006199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92601277900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89631440399999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88982875800000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88337058300000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87727838800000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84489289599999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83916081099999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83363269100000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82769475800000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79622809800000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79064016999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.785040548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77977136700000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74986527199999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74465088999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73943384599999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73451233800000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70625819400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFB5-47F5-9028-4A9978FE1BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4193,382 +5050,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="3"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_10!$D$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Winnowing</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="31750" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="00B050"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_20!$E$6:$E$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>5.7441108895681303</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8.5204905528128592</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>19.182430844022399</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>19.465203955876401</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>19.655731907068098</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>19.834323809149801</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>20.269702040172501</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>20.3427813268911</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>20.4154796887195</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>20.489153905746701</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>20.568161644204299</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>20.640637943218199</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20.7136172195464</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>20.787565331074202</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>20.861960924576699</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20.9358155883492</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>21.010330396538698</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>21.0858772313385</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>21.161715928282199</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_20!$F$6:$F$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>0.96316640899999995</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.95555422700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.94047997299999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.93924454499999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.93658622000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.93310640700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.92892862499999995</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.92562182100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.92233524499999997</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.91904303399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.91575336900000004</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.912517778</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.90930150099999996</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.90607865399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.90286736499999998</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.89970689199999998</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.89655777599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.89340206899999997</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.89025996799999996</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-6245-411A-8E60-7788715AF061}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_15!$J$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TDDD</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_20!$M$6:$M$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>24.2649345663676</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>57.349204660667901</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>67.2250808727444</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>119.641226819978</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>138.96770138397801</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>186.19810302008199</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>176.059433314366</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>247.01457749281099</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>288.50548618320403</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>320.71258457944901</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>334.84569373704198</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>401.57549553695202</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>418.73170696010402</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>492.51072570597898</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>463.48417536458498</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>527.64994992456297</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>580.25214968444402</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>641.90030706003495</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>634.22298014026001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>periodic_20!$N$6:$N$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>0.52465583900000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.77125564499999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.66478425600000002</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.62643299900000005</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.58380656399999997</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.52768027399999995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.52251231799999998</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.46850050300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.37336813000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.34729222500000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.36674891199999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.279242451</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.267654479</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.20129681899999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.26339364100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.197914534</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.189186191</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.142628159</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.16877724099999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-6245-411A-8E60-7788715AF061}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>periodic_10!$G$4</c15:sqref>
                         </c15:formulaRef>
@@ -4596,8 +5083,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>periodic_20!$H$6:$H$24</c15:sqref>
                         </c15:formulaRef>
@@ -4668,8 +5155,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>periodic_20!$I$6:$I$24</c15:sqref>
                         </c15:formulaRef>
@@ -4739,7 +5226,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6245-411A-8E60-7788715AF061}"/>
                   </c:ext>
@@ -4753,6 +5240,7 @@
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5630,21 +6118,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>periodic_25!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2min_equals</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -5657,7 +6137,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_25!$H$6:$H$24</c:f>
+              <c:f>periodic_25!$P$6:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5671,59 +6151,59 @@
                   <c:v>25.590728660496602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3746.4554618996299</c:v>
+                  <c:v>50.078933927644499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3892.3262407419202</c:v>
+                  <c:v>50.408471244359397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3963.7226161435301</c:v>
+                  <c:v>50.739135686189201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3971.7826446822601</c:v>
+                  <c:v>51.0712308175383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3977.43992790631</c:v>
+                  <c:v>51.405698993788398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6913.7103386295503</c:v>
+                  <c:v>75.5811494499589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6918.5538167888499</c:v>
+                  <c:v>76.066145366856006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6923.08448772867</c:v>
+                  <c:v>76.554130999786906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6927.7245112784503</c:v>
+                  <c:v>77.045615835196699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6932.8453777550003</c:v>
+                  <c:v>77.544625589487097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6938.4476376541897</c:v>
+                  <c:v>101.50572255326701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6944.1803922173804</c:v>
+                  <c:v>102.149591611871</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6949.2672345691199</c:v>
+                  <c:v>102.800419708429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6954.2486251722203</c:v>
+                  <c:v>103.45507879902399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6959.2992503464402</c:v>
+                  <c:v>104.118595423033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6967.73343535392</c:v>
+                  <c:v>127.87628721051399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_25!$I$6:$I$24</c:f>
+              <c:f>periodic_25!$Q$6:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5737,52 +6217,52 @@
                   <c:v>0.91186648699999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.87564469599999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.86992776299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.86419996300000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.85871467300000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.85330138799999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.81546953600000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.81022780500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.80505110700000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.79995343699999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.79477520800000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.75836521300000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.75357777699999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.74873064</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.74412482999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.73958828600000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.70518102000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5790,7 +6270,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8400-4264-985D-906559A0ACA1}"/>
+              <c16:uniqueId val="{00000000-691E-461B-8DA6-35141F710EA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5804,11 +6284,201 @@
         </c:dLbls>
         <c:axId val="411149832"/>
         <c:axId val="411150160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_25!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2min</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_25!$H$6:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>22.1275186628901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25.256992650420202</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25.590728660496602</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3746.4554618996299</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3892.3262407419202</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3963.7226161435301</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3971.7826446822601</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3977.43992790631</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6913.7103386295503</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6918.5538167888499</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6923.08448772867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6927.7245112784503</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6932.8453777550003</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6938.4476376541897</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6944.1803922173804</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6949.2672345691199</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6954.2486251722203</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6959.2992503464402</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6967.73343535392</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_25!$I$6:$I$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.92877201600000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.91811542300000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.91186648699999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8400-4264-985D-906559A0ACA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6686,21 +7356,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>periodic_25!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2min_equals</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -6713,7 +7375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>periodic_30!$H$6:$H$24</c:f>
+              <c:f>periodic_30!$P$6:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6730,56 +7392,56 @@
                   <c:v>30.7593300984127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3783.5996855485701</c:v>
+                  <c:v>60.098056105383797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3898.2222897861202</c:v>
+                  <c:v>60.428265630162997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3955.1566851534499</c:v>
+                  <c:v>60.761284192119497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3963.5593878821401</c:v>
+                  <c:v>61.095588205311202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3969.0907054976601</c:v>
+                  <c:v>61.426154338518799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3975.6642870843698</c:v>
+                  <c:v>61.760473273877501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4745.3760231116003</c:v>
+                  <c:v>90.684388390943795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4750.7511052329601</c:v>
+                  <c:v>91.165156892710897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4755.2236400288202</c:v>
+                  <c:v>91.650488501358595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4759.8887762129598</c:v>
+                  <c:v>92.134648307332398</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4764.9763104355097</c:v>
+                  <c:v>92.629810035766397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4772.2083000126604</c:v>
+                  <c:v>93.1314466330154</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4778.1073501052897</c:v>
+                  <c:v>121.76842867481901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4783.4659086175698</c:v>
+                  <c:v>122.412321548557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4787.8381621735298</c:v>
+                  <c:v>123.058991340367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>periodic_30!$I$6:$I$24</c:f>
+              <c:f>periodic_30!$Q$6:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6796,49 +7458,49 @@
                   <c:v>0.90102125995747995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.8581542996914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.85348476203047596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.84886470327059305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.84419577160845705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.83973753052493905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.83530722738554497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.79145266809466397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.78725026549946897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.78306565186869603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.77898153303693396</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.77486950726098602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.77071676256647503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.72906226387547202</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.72524002751994499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.72145663108673797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6846,7 +7508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B6D7-4DA8-9F6E-D4C44203864E}"/>
+              <c16:uniqueId val="{00000000-372C-4F05-8D57-287C7DC578EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6860,11 +7522,201 @@
         </c:dLbls>
         <c:axId val="411149832"/>
         <c:axId val="411150160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_25!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2min</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_30!$H$6:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>23.017036171683301</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.049741102168799</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.4261629526493</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30.7593300984127</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3783.5996855485701</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3898.2222897861202</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3955.1566851534499</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3963.5593878821401</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3969.0907054976601</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3975.6642870843698</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4745.3760231116003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4750.7511052329601</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4755.2236400288202</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4759.8887762129598</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4764.9763104355097</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4772.2083000126604</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4778.1073501052897</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4783.4659086175698</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4787.8381621735298</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>periodic_30!$I$6:$I$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0.92692878014243996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.91116770666458602</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.90617659064681799</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.90102125995747995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B6D7-4DA8-9F6E-D4C44203864E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="411149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17017,15 +17869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>694764</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29136</xdr:rowOff>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>105336</xdr:rowOff>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17494,8 +18346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:Q24"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19000,7 +19852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
@@ -19488,8 +20340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="J5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20652,7 +21504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -21664,7 +22516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:N24"/>
     </sheetView>
   </sheetViews>
@@ -22676,8 +23528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
